--- a/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:U156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0260252668551058</v>
+        <v>0.0260253054332578</v>
       </c>
       <c r="H3" t="n">
         <v>0.057</v>
@@ -732,7 +732,7 @@
         <v>0.026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0260252668551058</v>
+        <v>0.0260253054332578</v>
       </c>
       <c r="H4" t="n">
         <v>0.057</v>
@@ -813,7 +813,7 @@
         <v>8.5</v>
       </c>
       <c r="G5" t="n">
-        <v>174.680257167696</v>
+        <v>174.680232566439</v>
       </c>
       <c r="H5" t="n">
         <v>3466</v>
@@ -898,7 +898,7 @@
         <v>8.5</v>
       </c>
       <c r="G6" t="n">
-        <v>174.680257167696</v>
+        <v>174.680232566439</v>
       </c>
       <c r="H6" t="n">
         <v>3466</v>
@@ -983,7 +983,7 @@
         <v>8.5</v>
       </c>
       <c r="G7" t="n">
-        <v>174.680257167696</v>
+        <v>174.680232566439</v>
       </c>
       <c r="H7" t="n">
         <v>3466</v>
@@ -1068,7 +1068,7 @@
         <v>8.5</v>
       </c>
       <c r="G8" t="n">
-        <v>174.680257167696</v>
+        <v>174.680232566439</v>
       </c>
       <c r="H8" t="n">
         <v>3466</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005200179319559</v>
+        <v>0.0052209629634327</v>
       </c>
       <c r="H9" t="n">
         <v>0.0330522009741848</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00057</v>
+        <v>0.00061</v>
       </c>
       <c r="M9" t="n">
         <v>0.01276</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005200179319559</v>
+        <v>0.0052209629634327</v>
       </c>
       <c r="H10" t="n">
         <v>0.0330522009741848</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00057</v>
+        <v>0.00061</v>
       </c>
       <c r="M10" t="n">
         <v>0.01276</v>
@@ -1315,7 +1315,7 @@
         <v>0.027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0288965109962077</v>
+        <v>0.028912389362915</v>
       </c>
       <c r="H11" t="n">
         <v>0.0832</v>
@@ -1396,7 +1396,7 @@
         <v>0.027</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0288965109962077</v>
+        <v>0.028912389362915</v>
       </c>
       <c r="H12" t="n">
         <v>0.0832</v>
@@ -1473,24 +1473,24 @@
         <v>0.036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0371436255548525</v>
+        <v>0.0371537006833963</v>
       </c>
       <c r="H13" t="n">
         <v>0.109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0813</v>
+        <v>0.08155999999999999</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05581</v>
+        <v>0.0554</v>
       </c>
       <c r="N13" t="n">
-        <v>0.075</v>
+        <v>0.07496999999999999</v>
       </c>
       <c r="O13" t="n">
         <v>1813128.407</v>
@@ -1550,24 +1550,24 @@
         <v>0.036</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0371436255548525</v>
+        <v>0.0371537006833963</v>
       </c>
       <c r="H14" t="n">
         <v>0.109</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0813</v>
+        <v>0.08155999999999999</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05581</v>
+        <v>0.0554</v>
       </c>
       <c r="N14" t="n">
-        <v>0.075</v>
+        <v>0.07496999999999999</v>
       </c>
       <c r="O14" t="n">
         <v>1813128.407</v>
@@ -1712,7 +1712,7 @@
         <v>0.029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0271244246266023</v>
+        <v>0.0271244619188159</v>
       </c>
       <c r="H16" t="n">
         <v>0.057</v>
@@ -1793,7 +1793,7 @@
         <v>0.029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0271244246266023</v>
+        <v>0.0271244619188159</v>
       </c>
       <c r="H17" t="n">
         <v>0.057</v>
@@ -1874,7 +1874,7 @@
         <v>8.5</v>
       </c>
       <c r="G18" t="n">
-        <v>141.619428590536</v>
+        <v>141.619409666492</v>
       </c>
       <c r="H18" t="n">
         <v>3466</v>
@@ -1959,7 +1959,7 @@
         <v>8.5</v>
       </c>
       <c r="G19" t="n">
-        <v>141.619428590536</v>
+        <v>141.619409666492</v>
       </c>
       <c r="H19" t="n">
         <v>3466</v>
@@ -2044,7 +2044,7 @@
         <v>8.5</v>
       </c>
       <c r="G20" t="n">
-        <v>141.619428590536</v>
+        <v>141.619409666492</v>
       </c>
       <c r="H20" t="n">
         <v>3466</v>
@@ -2129,7 +2129,7 @@
         <v>8.5</v>
       </c>
       <c r="G21" t="n">
-        <v>141.619428590536</v>
+        <v>141.619409666492</v>
       </c>
       <c r="H21" t="n">
         <v>3466</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0009</v>
+        <v>0.00092</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0037349708263771</v>
+        <v>0.0037774530683489</v>
       </c>
       <c r="H22" t="n">
         <v>0.0265818391741707</v>
@@ -2225,7 +2225,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00086</v>
+        <v>0.00091</v>
       </c>
       <c r="M22" t="n">
         <v>0.00647</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0009</v>
+        <v>0.00092</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0037349708263771</v>
+        <v>0.0037774530683489</v>
       </c>
       <c r="H23" t="n">
         <v>0.0265818391741707</v>
@@ -2306,7 +2306,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00086</v>
+        <v>0.00091</v>
       </c>
       <c r="M23" t="n">
         <v>0.00647</v>
@@ -2376,7 +2376,7 @@
         <v>0.0225</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0277172610218241</v>
+        <v>0.0277420425710781</v>
       </c>
       <c r="H24" t="n">
         <v>0.127</v>
@@ -2387,7 +2387,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00673</v>
+        <v>0.00688</v>
       </c>
       <c r="M24" t="n">
         <v>0.048</v>
@@ -2457,7 +2457,7 @@
         <v>0.0225</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0277172610218241</v>
+        <v>0.0277420425710781</v>
       </c>
       <c r="H25" t="n">
         <v>0.127</v>
@@ -2468,7 +2468,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00673</v>
+        <v>0.00688</v>
       </c>
       <c r="M25" t="n">
         <v>0.048</v>
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0354768442689279</v>
+        <v>0.0355177424710812</v>
       </c>
       <c r="H26" t="n">
         <v>0.135</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0842</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         <v>0.0135</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0543</v>
+        <v>0.05444</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0726</v>
+        <v>0.07266</v>
       </c>
       <c r="O26" t="n">
         <v>1813128.407</v>
@@ -2608,16 +2608,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0354768442689279</v>
+        <v>0.0355177424710812</v>
       </c>
       <c r="H27" t="n">
         <v>0.135</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0842</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2625,10 +2625,10 @@
         <v>0.0135</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0543</v>
+        <v>0.05444</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0726</v>
+        <v>0.07266</v>
       </c>
       <c r="O27" t="n">
         <v>1813128.407</v>
@@ -2688,7 +2688,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08223150787343229</v>
+        <v>0.0822314318509018</v>
       </c>
       <c r="H28" t="n">
         <v>0.419</v>
@@ -2765,7 +2765,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08223150787343229</v>
+        <v>0.0822314318509018</v>
       </c>
       <c r="H29" t="n">
         <v>0.419</v>
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>86.0186068820709</v>
+        <v>86.018312655671</v>
       </c>
       <c r="H35" t="n">
         <v>3466</v>
@@ -3328,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>86.0186068820709</v>
+        <v>86.018312655671</v>
       </c>
       <c r="H36" t="n">
         <v>3466</v>
@@ -3413,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="n">
-        <v>86.0186068820709</v>
+        <v>86.018312655671</v>
       </c>
       <c r="H37" t="n">
         <v>3466</v>
@@ -3498,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>86.0186068820709</v>
+        <v>86.018312655671</v>
       </c>
       <c r="H38" t="n">
         <v>3466</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.00098</v>
+        <v>0.00111</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0024764677512005</v>
+        <v>0.0025501313463292</v>
       </c>
       <c r="H39" t="n">
         <v>0.0210850170824336</v>
@@ -3594,10 +3594,10 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.00094</v>
+        <v>0.00105</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00251</v>
+        <v>0.00275</v>
       </c>
       <c r="N39" t="n">
         <v>0.008670000000000001</v>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.00098</v>
+        <v>0.00111</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0024764677512005</v>
+        <v>0.0025501313463292</v>
       </c>
       <c r="H40" t="n">
         <v>0.0210850170824336</v>
@@ -3675,10 +3675,10 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.00094</v>
+        <v>0.00105</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00251</v>
+        <v>0.00275</v>
       </c>
       <c r="N40" t="n">
         <v>0.008670000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>0.023</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0296214692795445</v>
+        <v>0.0296514523098618</v>
       </c>
       <c r="H41" t="n">
         <v>0.127</v>
@@ -3756,7 +3756,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00808</v>
+        <v>0.008229999999999999</v>
       </c>
       <c r="M41" t="n">
         <v>0.0533</v>
@@ -3826,7 +3826,7 @@
         <v>0.023</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0296214692795445</v>
+        <v>0.0296514523098618</v>
       </c>
       <c r="H42" t="n">
         <v>0.127</v>
@@ -3837,7 +3837,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00808</v>
+        <v>0.008229999999999999</v>
       </c>
       <c r="M42" t="n">
         <v>0.0533</v>
@@ -3900,16 +3900,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.0285</v>
+        <v>0.02845</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0362665022586555</v>
+        <v>0.0363089617981096</v>
       </c>
       <c r="H43" t="n">
         <v>0.135</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0842</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -3917,10 +3917,10 @@
         <v>0.0135</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0562</v>
+        <v>0.05626</v>
       </c>
       <c r="N43" t="n">
-        <v>0.067</v>
+        <v>0.0672</v>
       </c>
       <c r="O43" t="n">
         <v>1813128.407</v>
@@ -3977,16 +3977,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0285</v>
+        <v>0.02845</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0362665022586555</v>
+        <v>0.0363089617981096</v>
       </c>
       <c r="H44" t="n">
         <v>0.135</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0842</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -3994,10 +3994,10 @@
         <v>0.0135</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0562</v>
+        <v>0.05626</v>
       </c>
       <c r="N44" t="n">
-        <v>0.067</v>
+        <v>0.0672</v>
       </c>
       <c r="O44" t="n">
         <v>1813128.407</v>
@@ -4057,7 +4057,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07792557669063629</v>
+        <v>0.07792630290252089</v>
       </c>
       <c r="H45" t="n">
         <v>0.419</v>
@@ -4134,7 +4134,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07792557669063629</v>
+        <v>0.07792630290252089</v>
       </c>
       <c r="H46" t="n">
         <v>0.419</v>
@@ -4447,27 +4447,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6.005</v>
+        <v>5.63</v>
       </c>
       <c r="G50" t="n">
-        <v>6.28313147696148</v>
+        <v>5.89884054559082</v>
       </c>
       <c r="H50" t="n">
         <v>13</v>
       </c>
       <c r="I50" t="n">
-        <v>10.05796</v>
+        <v>8.937709999999999</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>6.25</v>
+        <v>5.98</v>
       </c>
       <c r="M50" t="n">
-        <v>7.507</v>
+        <v>7.214</v>
       </c>
       <c r="N50" t="n">
-        <v>9.70384</v>
+        <v>7.97761</v>
       </c>
       <c r="O50" t="n">
         <v>1813128.407</v>
@@ -4693,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>18.1084229034572</v>
+        <v>18.1069069697246</v>
       </c>
       <c r="H53" t="n">
         <v>120</v>
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>18.1084229034572</v>
+        <v>18.1069069697246</v>
       </c>
       <c r="H54" t="n">
         <v>120</v>
@@ -4863,7 +4863,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>18.1084229034572</v>
+        <v>18.1069069697246</v>
       </c>
       <c r="H55" t="n">
         <v>120</v>
@@ -4948,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>18.1084229034572</v>
+        <v>18.1069069697246</v>
       </c>
       <c r="H56" t="n">
         <v>120</v>
@@ -5033,24 +5033,24 @@
         <v>0.00142</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0032469224401552</v>
+        <v>0.0033926441257842</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0210850170824336</v>
+        <v>0.0211657424453964</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01636</v>
+        <v>0.01686</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.00098</v>
+        <v>0.00111</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00329</v>
+        <v>0.00341</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01444</v>
+        <v>0.01461</v>
       </c>
       <c r="O57" t="n">
         <v>1813128.407</v>
@@ -5114,24 +5114,24 @@
         <v>0.00142</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0032469224401552</v>
+        <v>0.0033926441257842</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0210850170824336</v>
+        <v>0.0211657424453964</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01636</v>
+        <v>0.01686</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.00098</v>
+        <v>0.00111</v>
       </c>
       <c r="M58" t="n">
-        <v>0.00329</v>
+        <v>0.00341</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01444</v>
+        <v>0.01461</v>
       </c>
       <c r="O58" t="n">
         <v>1813128.407</v>
@@ -5195,7 +5195,7 @@
         <v>0.035</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0337454062591696</v>
+        <v>0.0337769673437142</v>
       </c>
       <c r="H59" t="n">
         <v>0.127</v>
@@ -5276,7 +5276,7 @@
         <v>0.035</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0337454062591696</v>
+        <v>0.0337769673437142</v>
       </c>
       <c r="H60" t="n">
         <v>0.127</v>
@@ -5353,13 +5353,13 @@
         <v>0.045</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0405612304477075</v>
+        <v>0.04059715276994</v>
       </c>
       <c r="H61" t="n">
         <v>0.135</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09045</v>
+        <v>0.09059</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -5367,10 +5367,10 @@
         <v>0.02</v>
       </c>
       <c r="M61" t="n">
-        <v>0.06386</v>
+        <v>0.0639</v>
       </c>
       <c r="N61" t="n">
-        <v>0.07452</v>
+        <v>0.07453</v>
       </c>
       <c r="O61" t="n">
         <v>1813128.407</v>
@@ -5430,13 +5430,13 @@
         <v>0.045</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0405612304477075</v>
+        <v>0.04059715276994</v>
       </c>
       <c r="H62" t="n">
         <v>0.135</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09045</v>
+        <v>0.09059</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -5444,10 +5444,10 @@
         <v>0.02</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06386</v>
+        <v>0.0639</v>
       </c>
       <c r="N62" t="n">
-        <v>0.07452</v>
+        <v>0.07453</v>
       </c>
       <c r="O62" t="n">
         <v>1813128.407</v>
@@ -5507,7 +5507,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0759514964170479</v>
+        <v>0.0759537236338419</v>
       </c>
       <c r="H63" t="n">
         <v>0.419</v>
@@ -5584,7 +5584,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0759514964170479</v>
+        <v>0.0759537236338419</v>
       </c>
       <c r="H64" t="n">
         <v>0.419</v>
@@ -5897,16 +5897,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="G68" t="n">
-        <v>6.07867291753933</v>
+        <v>5.9147951669233</v>
       </c>
       <c r="H68" t="n">
         <v>13</v>
       </c>
       <c r="I68" t="n">
-        <v>9.62823</v>
+        <v>8.67747</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5914,10 +5914,10 @@
         <v>6.14</v>
       </c>
       <c r="M68" t="n">
-        <v>7.3154</v>
+        <v>7.1636</v>
       </c>
       <c r="N68" t="n">
-        <v>9.21959</v>
+        <v>7.73399</v>
       </c>
       <c r="O68" t="n">
         <v>1813128.407</v>
@@ -6143,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="n">
-        <v>52.6653804443942</v>
+        <v>52.6622544092899</v>
       </c>
       <c r="H71" t="n">
         <v>1500</v>
@@ -6228,7 +6228,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>52.6653804443942</v>
+        <v>52.6622544092899</v>
       </c>
       <c r="H72" t="n">
         <v>1500</v>
@@ -6313,7 +6313,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>52.6653804443942</v>
+        <v>52.6622544092899</v>
       </c>
       <c r="H73" t="n">
         <v>1500</v>
@@ -6398,7 +6398,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="n">
-        <v>52.6653804443942</v>
+        <v>52.6622544092899</v>
       </c>
       <c r="H74" t="n">
         <v>1500</v>
@@ -6480,24 +6480,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.00153</v>
+        <v>0.00169</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0036461186934186</v>
+        <v>0.0038495089527588</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0210850170824336</v>
+        <v>0.0211657424453964</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01543</v>
+        <v>0.01634</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00146</v>
+        <v>0.0016</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00666</v>
+        <v>0.00704</v>
       </c>
       <c r="N75" t="n">
         <v>0.0133</v>
@@ -6561,24 +6561,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.00153</v>
+        <v>0.00169</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0036461186934186</v>
+        <v>0.0038495089527588</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0210850170824336</v>
+        <v>0.0211657424453964</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01543</v>
+        <v>0.01634</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00146</v>
+        <v>0.0016</v>
       </c>
       <c r="M76" t="n">
-        <v>0.00666</v>
+        <v>0.00704</v>
       </c>
       <c r="N76" t="n">
         <v>0.0133</v>
@@ -6645,7 +6645,7 @@
         <v>0.0345</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0357876071120225</v>
+        <v>0.035825518648931</v>
       </c>
       <c r="H77" t="n">
         <v>0.127</v>
@@ -6726,7 +6726,7 @@
         <v>0.0345</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0357876071120225</v>
+        <v>0.035825518648931</v>
       </c>
       <c r="H78" t="n">
         <v>0.127</v>
@@ -6803,7 +6803,7 @@
         <v>0.045</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0429333258077199</v>
+        <v>0.0429788764218233</v>
       </c>
       <c r="H79" t="n">
         <v>0.135</v>
@@ -6820,7 +6820,7 @@
         <v>0.065</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08205999999999999</v>
+        <v>0.08245</v>
       </c>
       <c r="O79" t="n">
         <v>1813128.407</v>
@@ -6880,7 +6880,7 @@
         <v>0.045</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0429333258077199</v>
+        <v>0.0429788764218233</v>
       </c>
       <c r="H80" t="n">
         <v>0.135</v>
@@ -6897,7 +6897,7 @@
         <v>0.065</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08205999999999999</v>
+        <v>0.08245</v>
       </c>
       <c r="O80" t="n">
         <v>1813128.407</v>
@@ -6957,7 +6957,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0735222429035812</v>
+        <v>0.0735256958981613</v>
       </c>
       <c r="H81" t="n">
         <v>0.16</v>
@@ -7034,7 +7034,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0735222429035812</v>
+        <v>0.0735256958981613</v>
       </c>
       <c r="H82" t="n">
         <v>0.16</v>
@@ -7593,7 +7593,7 @@
         <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>62.6724328158367</v>
+        <v>62.6678517674939</v>
       </c>
       <c r="H89" t="n">
         <v>1500</v>
@@ -7678,7 +7678,7 @@
         <v>12</v>
       </c>
       <c r="G90" t="n">
-        <v>62.6724328158367</v>
+        <v>62.6678517674939</v>
       </c>
       <c r="H90" t="n">
         <v>1500</v>
@@ -7763,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>62.6724328158367</v>
+        <v>62.6678517674939</v>
       </c>
       <c r="H91" t="n">
         <v>1500</v>
@@ -7848,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>62.6724328158367</v>
+        <v>62.6678517674939</v>
       </c>
       <c r="H92" t="n">
         <v>1500</v>
@@ -7930,27 +7930,27 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.00173</v>
+        <v>0.00189</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0045460824671731</v>
+        <v>0.0047707063333448</v>
       </c>
       <c r="H93" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I93" t="n">
-        <v>0.01639</v>
+        <v>0.01756</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00189</v>
+        <v>0.00207</v>
       </c>
       <c r="M93" t="n">
-        <v>0.00586</v>
+        <v>0.00624</v>
       </c>
       <c r="N93" t="n">
-        <v>0.00984</v>
+        <v>0.01037</v>
       </c>
       <c r="O93" t="n">
         <v>1813128.407</v>
@@ -8011,27 +8011,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00173</v>
+        <v>0.00189</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0045460824671731</v>
+        <v>0.0047707063333448</v>
       </c>
       <c r="H94" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01639</v>
+        <v>0.01756</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00189</v>
+        <v>0.00207</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00586</v>
+        <v>0.00624</v>
       </c>
       <c r="N94" t="n">
-        <v>0.00984</v>
+        <v>0.01037</v>
       </c>
       <c r="O94" t="n">
         <v>1813128.407</v>
@@ -8095,7 +8095,7 @@
         <v>0.034</v>
       </c>
       <c r="G95" t="n">
-        <v>0.037674605323322</v>
+        <v>0.0376984872677251</v>
       </c>
       <c r="H95" t="n">
         <v>0.127</v>
@@ -8176,7 +8176,7 @@
         <v>0.034</v>
       </c>
       <c r="G96" t="n">
-        <v>0.037674605323322</v>
+        <v>0.0376984872677251</v>
       </c>
       <c r="H96" t="n">
         <v>0.127</v>
@@ -8253,7 +8253,7 @@
         <v>0.045</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0447074429138377</v>
+        <v>0.0447011007974219</v>
       </c>
       <c r="H97" t="n">
         <v>0.135</v>
@@ -8330,7 +8330,7 @@
         <v>0.045</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0447074429138377</v>
+        <v>0.0447011007974219</v>
       </c>
       <c r="H98" t="n">
         <v>0.135</v>
@@ -8407,7 +8407,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.073027415062298</v>
+        <v>0.07303309394968981</v>
       </c>
       <c r="H99" t="n">
         <v>0.16</v>
@@ -8484,7 +8484,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>0.073027415062298</v>
+        <v>0.07303309394968981</v>
       </c>
       <c r="H100" t="n">
         <v>0.16</v>
@@ -9043,7 +9043,7 @@
         <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>60.3682762088886</v>
+        <v>60.3619302118474</v>
       </c>
       <c r="H107" t="n">
         <v>1500</v>
@@ -9128,7 +9128,7 @@
         <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>60.3682762088886</v>
+        <v>60.3619302118474</v>
       </c>
       <c r="H108" t="n">
         <v>1500</v>
@@ -9213,7 +9213,7 @@
         <v>8</v>
       </c>
       <c r="G109" t="n">
-        <v>60.3682762088886</v>
+        <v>60.3619302118474</v>
       </c>
       <c r="H109" t="n">
         <v>1500</v>
@@ -9298,7 +9298,7 @@
         <v>8</v>
       </c>
       <c r="G110" t="n">
-        <v>60.3682762088886</v>
+        <v>60.3619302118474</v>
       </c>
       <c r="H110" t="n">
         <v>1500</v>
@@ -9380,27 +9380,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00233</v>
+        <v>0.00253</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0050274931558892</v>
+        <v>0.0052370177758042</v>
       </c>
       <c r="H111" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01699</v>
+        <v>0.0182</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00245</v>
+        <v>0.00263</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00662</v>
+        <v>0.00699</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01028</v>
+        <v>0.01083</v>
       </c>
       <c r="O111" t="n">
         <v>1813128.407</v>
@@ -9461,27 +9461,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00233</v>
+        <v>0.00253</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0050274931558892</v>
+        <v>0.0052370177758042</v>
       </c>
       <c r="H112" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01699</v>
+        <v>0.0182</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00245</v>
+        <v>0.00263</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00662</v>
+        <v>0.00699</v>
       </c>
       <c r="N112" t="n">
-        <v>0.01028</v>
+        <v>0.01083</v>
       </c>
       <c r="O112" t="n">
         <v>1813128.407</v>
@@ -9545,7 +9545,7 @@
         <v>0.038</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0423847986867461</v>
+        <v>0.0423980518765719</v>
       </c>
       <c r="H113" t="n">
         <v>0.08599999999999999</v>
@@ -9626,7 +9626,7 @@
         <v>0.038</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0423847986867461</v>
+        <v>0.0423980518765719</v>
       </c>
       <c r="H114" t="n">
         <v>0.08599999999999999</v>
@@ -9703,7 +9703,7 @@
         <v>0.045</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0488678247728466</v>
+        <v>0.0488531777366091</v>
       </c>
       <c r="H115" t="n">
         <v>0.095</v>
@@ -9714,7 +9714,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
       <c r="M115" t="n">
         <v>0.065</v>
@@ -9780,7 +9780,7 @@
         <v>0.045</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0488678247728466</v>
+        <v>0.0488531777366091</v>
       </c>
       <c r="H116" t="n">
         <v>0.095</v>
@@ -9791,7 +9791,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
       <c r="M116" t="n">
         <v>0.065</v>
@@ -9857,7 +9857,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0754001498579597</v>
+        <v>0.0754042607093779</v>
       </c>
       <c r="H117" t="n">
         <v>0.16</v>
@@ -9934,7 +9934,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0754001498579597</v>
+        <v>0.0754042607093779</v>
       </c>
       <c r="H118" t="n">
         <v>0.16</v>
@@ -10493,7 +10493,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>107.236177526535</v>
+        <v>107.229886016616</v>
       </c>
       <c r="H125" t="n">
         <v>1500</v>
@@ -10578,7 +10578,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>107.236177526535</v>
+        <v>107.229886016616</v>
       </c>
       <c r="H126" t="n">
         <v>1500</v>
@@ -10663,7 +10663,7 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>107.236177526535</v>
+        <v>107.229886016616</v>
       </c>
       <c r="H127" t="n">
         <v>1500</v>
@@ -10748,7 +10748,7 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>107.236177526535</v>
+        <v>107.229886016616</v>
       </c>
       <c r="H128" t="n">
         <v>1500</v>
@@ -10830,16 +10830,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00331</v>
+        <v>0.00338</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0058339027923911</v>
+        <v>0.0060050138956769</v>
       </c>
       <c r="H129" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01739</v>
+        <v>0.01862</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -10847,10 +10847,10 @@
         <v>0.00434</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00721</v>
+        <v>0.00743</v>
       </c>
       <c r="N129" t="n">
-        <v>0.01109</v>
+        <v>0.01172</v>
       </c>
       <c r="O129" t="n">
         <v>1813128.407</v>
@@ -10911,16 +10911,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.00331</v>
+        <v>0.00338</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0058339027923911</v>
+        <v>0.0060050138956769</v>
       </c>
       <c r="H130" t="n">
         <v>0.0674316263011546</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01739</v>
+        <v>0.01862</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -10928,10 +10928,10 @@
         <v>0.00434</v>
       </c>
       <c r="M130" t="n">
-        <v>0.00721</v>
+        <v>0.00743</v>
       </c>
       <c r="N130" t="n">
-        <v>0.01109</v>
+        <v>0.01172</v>
       </c>
       <c r="O130" t="n">
         <v>1813128.407</v>
@@ -10995,7 +10995,7 @@
         <v>0.041</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0456938661195781</v>
+        <v>0.045700910994531</v>
       </c>
       <c r="H131" t="n">
         <v>0.111</v>
@@ -11076,7 +11076,7 @@
         <v>0.041</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0456938661195781</v>
+        <v>0.045700910994531</v>
       </c>
       <c r="H132" t="n">
         <v>0.111</v>
@@ -11153,7 +11153,7 @@
         <v>0.0505</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0532233936894127</v>
+        <v>0.053199551559468</v>
       </c>
       <c r="H133" t="n">
         <v>0.111</v>
@@ -11230,7 +11230,7 @@
         <v>0.0505</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0532233936894127</v>
+        <v>0.053199551559468</v>
       </c>
       <c r="H134" t="n">
         <v>0.111</v>
@@ -11307,7 +11307,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0836595409699032</v>
+        <v>0.0836628763186605</v>
       </c>
       <c r="H135" t="n">
         <v>0.37</v>
@@ -11384,7 +11384,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0836595409699032</v>
+        <v>0.0836628763186605</v>
       </c>
       <c r="H136" t="n">
         <v>0.37</v>
@@ -11589,6 +11589,1456 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12.1837721895981</v>
+      </c>
+      <c r="H139" t="n">
+        <v>70</v>
+      </c>
+      <c r="I139" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M139" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P139" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.261</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M140" t="n">
+        <v>6.535</v>
+      </c>
+      <c r="N140" t="n">
+        <v>7.394</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P140" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.028734693877551</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.04755</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P141" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.028734693877551</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.04755</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P142" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" t="n">
+        <v>111.712906948597</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I143" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>6.12244897959184</v>
+      </c>
+      <c r="K143" t="n">
+        <v>14.2857142857143</v>
+      </c>
+      <c r="L143" t="n">
+        <v>78</v>
+      </c>
+      <c r="M143" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="N143" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P143" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>12</v>
+      </c>
+      <c r="G144" t="n">
+        <v>111.712906948597</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I144" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="J144" t="n">
+        <v>6.12244897959184</v>
+      </c>
+      <c r="K144" t="n">
+        <v>14.2857142857143</v>
+      </c>
+      <c r="L144" t="n">
+        <v>78</v>
+      </c>
+      <c r="M144" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="N144" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P144" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>111.712906948597</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I145" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.12244897959184</v>
+      </c>
+      <c r="K145" t="n">
+        <v>14.2857142857143</v>
+      </c>
+      <c r="L145" t="n">
+        <v>78</v>
+      </c>
+      <c r="M145" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="N145" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P145" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>12</v>
+      </c>
+      <c r="G146" t="n">
+        <v>111.712906948597</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I146" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6.12244897959184</v>
+      </c>
+      <c r="K146" t="n">
+        <v>14.2857142857143</v>
+      </c>
+      <c r="L146" t="n">
+        <v>78</v>
+      </c>
+      <c r="M146" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="N146" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P146" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0052951257761435</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0674316263011546</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.00987</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P147" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0052951257761435</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0674316263011546</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.00987</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P148" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0519641205254781</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.08051</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.09258</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0519641205254781</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.08051</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.09258</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P150" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0590342728925618</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.10625</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.05425</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.08517</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0590342728925618</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.10625</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.05425</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.08517</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0943280963911845</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.1715</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0943280963911845</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.1715</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0327755102040816</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.05815</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.03934</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.04458</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P155" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Whakapapa at Footbridge</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0327755102040816</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.05815</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.03934</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.04458</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1813128.407</v>
+      </c>
+      <c r="P156" t="n">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>Whai_2b</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -4447,27 +4447,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.63</v>
+        <v>5.84</v>
       </c>
       <c r="G50" t="n">
-        <v>5.89884054559082</v>
+        <v>5.99881971999669</v>
       </c>
       <c r="H50" t="n">
         <v>13</v>
       </c>
       <c r="I50" t="n">
-        <v>8.937709999999999</v>
+        <v>8.823869999999999</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="M50" t="n">
-        <v>7.214</v>
+        <v>7.419</v>
       </c>
       <c r="N50" t="n">
-        <v>7.97761</v>
+        <v>7.79111</v>
       </c>
       <c r="O50" t="n">
         <v>1813128.407</v>
@@ -5897,16 +5897,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="G68" t="n">
-        <v>5.9147951669233</v>
+        <v>5.97317189298118</v>
       </c>
       <c r="H68" t="n">
         <v>13</v>
       </c>
       <c r="I68" t="n">
-        <v>8.67747</v>
+        <v>8.46876</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5914,10 +5914,10 @@
         <v>6.14</v>
       </c>
       <c r="M68" t="n">
-        <v>7.1636</v>
+        <v>7.3154</v>
       </c>
       <c r="N68" t="n">
-        <v>7.73399</v>
+        <v>7.75062</v>
       </c>
       <c r="O68" t="n">
         <v>1813128.407</v>

--- a/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/state_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U156"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>3.1</v>
@@ -672,7 +675,7 @@
         <v>22.35</v>
       </c>
       <c r="L2">
-        <v>2.675</v>
+        <v>2.7</v>
       </c>
       <c r="M2">
         <v>15.33</v>
@@ -687,19 +690,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,13 +719,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0.026</v>
       </c>
       <c r="G3">
-        <v>0.0260253054332578</v>
+        <v>0.0260357826423181</v>
       </c>
       <c r="H3">
         <v>0.057</v>
@@ -731,7 +734,7 @@
         <v>0.0446</v>
       </c>
       <c r="L3">
-        <v>0.029</v>
+        <v>0.0275</v>
       </c>
       <c r="M3">
         <v>0.037</v>
@@ -746,19 +749,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +778,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.026</v>
       </c>
       <c r="G4">
-        <v>0.0260253054332578</v>
+        <v>0.0260357826423181</v>
       </c>
       <c r="H4">
         <v>0.057</v>
@@ -790,7 +793,7 @@
         <v>0.0446</v>
       </c>
       <c r="L4">
-        <v>0.029</v>
+        <v>0.0275</v>
       </c>
       <c r="M4">
         <v>0.037</v>
@@ -805,19 +808,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,13 +837,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>8.5</v>
       </c>
       <c r="G5">
-        <v>174.680232566439</v>
+        <v>174.679726588686</v>
       </c>
       <c r="H5">
         <v>3466</v>
@@ -870,19 +873,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -899,13 +902,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>8.5</v>
       </c>
       <c r="G6">
-        <v>174.680232566439</v>
+        <v>174.679726588686</v>
       </c>
       <c r="H6">
         <v>3466</v>
@@ -935,19 +938,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -964,13 +967,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>8.5</v>
       </c>
       <c r="G7">
-        <v>174.680232566439</v>
+        <v>174.679726588686</v>
       </c>
       <c r="H7">
         <v>3466</v>
@@ -1000,19 +1003,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1029,13 +1032,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>8.5</v>
       </c>
       <c r="G8">
-        <v>174.680232566439</v>
+        <v>174.679726588686</v>
       </c>
       <c r="H8">
         <v>3466</v>
@@ -1065,19 +1068,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1094,13 +1097,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>0.0008899999999999999</v>
+        <v>0.00092</v>
       </c>
       <c r="G9">
-        <v>0.0052209629634327</v>
+        <v>0.0052308160412319</v>
       </c>
       <c r="H9">
         <v>0.0330522009741848</v>
@@ -1109,7 +1112,7 @@
         <v>0.02411</v>
       </c>
       <c r="L9">
-        <v>0.00061</v>
+        <v>0.00086</v>
       </c>
       <c r="M9">
         <v>0.01276</v>
@@ -1124,19 +1127,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,13 +1156,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
-        <v>0.0008899999999999999</v>
+        <v>0.00092</v>
       </c>
       <c r="G10">
-        <v>0.0052209629634327</v>
+        <v>0.0052308160412319</v>
       </c>
       <c r="H10">
         <v>0.0330522009741848</v>
@@ -1168,7 +1171,7 @@
         <v>0.02411</v>
       </c>
       <c r="L10">
-        <v>0.00061</v>
+        <v>0.00086</v>
       </c>
       <c r="M10">
         <v>0.01276</v>
@@ -1183,19 +1186,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1212,13 +1215,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.027</v>
       </c>
       <c r="G11">
-        <v>0.028912389362915</v>
+        <v>0.0289405715547557</v>
       </c>
       <c r="H11">
         <v>0.0832</v>
@@ -1227,7 +1230,7 @@
         <v>0.06825000000000001</v>
       </c>
       <c r="L11">
-        <v>0.0083</v>
+        <v>0.0154</v>
       </c>
       <c r="M11">
         <v>0.05043</v>
@@ -1242,19 +1245,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1271,13 +1274,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0.027</v>
       </c>
       <c r="G12">
-        <v>0.028912389362915</v>
+        <v>0.0289405715547557</v>
       </c>
       <c r="H12">
         <v>0.0832</v>
@@ -1286,7 +1289,7 @@
         <v>0.06825000000000001</v>
       </c>
       <c r="L12">
-        <v>0.0083</v>
+        <v>0.0154</v>
       </c>
       <c r="M12">
         <v>0.05043</v>
@@ -1301,19 +1304,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,13 +1330,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>0.036</v>
       </c>
       <c r="G13">
-        <v>0.0371537006833963</v>
+        <v>0.037178441581452</v>
       </c>
       <c r="H13">
         <v>0.109</v>
@@ -1342,7 +1345,7 @@
         <v>0.08155999999999999</v>
       </c>
       <c r="L13">
-        <v>0.0199</v>
+        <v>0.0212</v>
       </c>
       <c r="M13">
         <v>0.0554</v>
@@ -1357,19 +1360,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,13 +1386,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>0.036</v>
       </c>
       <c r="G14">
-        <v>0.0371537006833963</v>
+        <v>0.037178441581452</v>
       </c>
       <c r="H14">
         <v>0.109</v>
@@ -1398,7 +1401,7 @@
         <v>0.08155999999999999</v>
       </c>
       <c r="L14">
-        <v>0.0199</v>
+        <v>0.0212</v>
       </c>
       <c r="M14">
         <v>0.0554</v>
@@ -1413,19 +1416,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1442,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>3.5</v>
@@ -1472,19 +1475,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1501,13 +1504,13 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>0.029</v>
       </c>
       <c r="G16">
-        <v>0.0271244619188159</v>
+        <v>0.0271345898875741</v>
       </c>
       <c r="H16">
         <v>0.057</v>
@@ -1516,7 +1519,7 @@
         <v>0.0445</v>
       </c>
       <c r="L16">
-        <v>0.0305</v>
+        <v>0.0295</v>
       </c>
       <c r="M16">
         <v>0.0373</v>
@@ -1531,19 +1534,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1560,13 +1563,13 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0.029</v>
       </c>
       <c r="G17">
-        <v>0.0271244619188159</v>
+        <v>0.0271345898875741</v>
       </c>
       <c r="H17">
         <v>0.057</v>
@@ -1575,7 +1578,7 @@
         <v>0.0445</v>
       </c>
       <c r="L17">
-        <v>0.0305</v>
+        <v>0.0295</v>
       </c>
       <c r="M17">
         <v>0.0373</v>
@@ -1590,19 +1593,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1619,13 +1622,13 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>8.5</v>
       </c>
       <c r="G18">
-        <v>141.619409666492</v>
+        <v>141.619020452836</v>
       </c>
       <c r="H18">
         <v>3466</v>
@@ -1655,19 +1658,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1684,13 +1687,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>8.5</v>
       </c>
       <c r="G19">
-        <v>141.619409666492</v>
+        <v>141.619020452836</v>
       </c>
       <c r="H19">
         <v>3466</v>
@@ -1720,19 +1723,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1749,13 +1752,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>8.5</v>
       </c>
       <c r="G20">
-        <v>141.619409666492</v>
+        <v>141.619020452836</v>
       </c>
       <c r="H20">
         <v>3466</v>
@@ -1785,19 +1788,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1814,13 +1817,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>8.5</v>
       </c>
       <c r="G21">
-        <v>141.619409666492</v>
+        <v>141.619020452836</v>
       </c>
       <c r="H21">
         <v>3466</v>
@@ -1850,19 +1853,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1879,13 +1882,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22">
-        <v>0.00092</v>
+        <v>0.00094</v>
       </c>
       <c r="G22">
-        <v>0.0037774530683489</v>
+        <v>0.0038007705244475</v>
       </c>
       <c r="H22">
         <v>0.0265818391741707</v>
@@ -1894,7 +1897,7 @@
         <v>0.02042</v>
       </c>
       <c r="L22">
-        <v>0.00091</v>
+        <v>0.00103</v>
       </c>
       <c r="M22">
         <v>0.00647</v>
@@ -1909,19 +1912,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1938,13 +1941,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23">
-        <v>0.00092</v>
+        <v>0.00094</v>
       </c>
       <c r="G23">
-        <v>0.0037774530683489</v>
+        <v>0.0038007705244475</v>
       </c>
       <c r="H23">
         <v>0.0265818391741707</v>
@@ -1953,7 +1956,7 @@
         <v>0.02042</v>
       </c>
       <c r="L23">
-        <v>0.00091</v>
+        <v>0.00103</v>
       </c>
       <c r="M23">
         <v>0.00647</v>
@@ -1968,19 +1971,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1997,13 +2000,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>0.0225</v>
       </c>
       <c r="G24">
-        <v>0.0277420425710781</v>
+        <v>0.0277846435897064</v>
       </c>
       <c r="H24">
         <v>0.127</v>
@@ -2012,7 +2015,7 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="L24">
-        <v>0.00688</v>
+        <v>0.01465</v>
       </c>
       <c r="M24">
         <v>0.048</v>
@@ -2027,19 +2030,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2056,13 +2059,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>0.0225</v>
       </c>
       <c r="G25">
-        <v>0.0277420425710781</v>
+        <v>0.0277846435897064</v>
       </c>
       <c r="H25">
         <v>0.127</v>
@@ -2071,7 +2074,7 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="L25">
-        <v>0.00688</v>
+        <v>0.01465</v>
       </c>
       <c r="M25">
         <v>0.048</v>
@@ -2086,19 +2089,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2112,13 +2115,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>0.0306</v>
       </c>
       <c r="G26">
-        <v>0.0355177424710812</v>
+        <v>0.035549702579246</v>
       </c>
       <c r="H26">
         <v>0.135</v>
@@ -2127,7 +2130,7 @@
         <v>0.0842</v>
       </c>
       <c r="L26">
-        <v>0.0135</v>
+        <v>0.0216</v>
       </c>
       <c r="M26">
         <v>0.05444</v>
@@ -2142,19 +2145,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2168,13 +2171,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>0.0306</v>
       </c>
       <c r="G27">
-        <v>0.0355177424710812</v>
+        <v>0.035549702579246</v>
       </c>
       <c r="H27">
         <v>0.135</v>
@@ -2183,7 +2186,7 @@
         <v>0.0842</v>
       </c>
       <c r="L27">
-        <v>0.0135</v>
+        <v>0.0216</v>
       </c>
       <c r="M27">
         <v>0.05444</v>
@@ -2198,19 +2201,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2224,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>0.07000000000000001</v>
       </c>
       <c r="G28">
-        <v>0.0822314318509018</v>
+        <v>0.0821490323465249</v>
       </c>
       <c r="H28">
         <v>0.419</v>
@@ -2239,7 +2242,7 @@
         <v>0.1518</v>
       </c>
       <c r="L28">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="M28">
         <v>0.11762</v>
@@ -2254,19 +2257,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2280,13 +2283,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>0.07000000000000001</v>
       </c>
       <c r="G29">
-        <v>0.0822314318509018</v>
+        <v>0.0821490323465249</v>
       </c>
       <c r="H29">
         <v>0.419</v>
@@ -2295,7 +2298,7 @@
         <v>0.1518</v>
       </c>
       <c r="L29">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="M29">
         <v>0.11762</v>
@@ -2310,19 +2313,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2336,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>0.03</v>
@@ -2351,7 +2354,7 @@
         <v>0.0446</v>
       </c>
       <c r="L30">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="M30">
         <v>0.03766</v>
@@ -2366,19 +2369,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2392,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.03</v>
@@ -2407,7 +2410,7 @@
         <v>0.0446</v>
       </c>
       <c r="L31">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="M31">
         <v>0.03766</v>
@@ -2422,19 +2425,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,7 +2454,7 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>3.725</v>
@@ -2466,7 +2469,7 @@
         <v>24.1</v>
       </c>
       <c r="L32">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="M32">
         <v>16.66</v>
@@ -2481,19 +2484,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2510,7 +2513,7 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>0.031</v>
@@ -2525,7 +2528,7 @@
         <v>0.0445</v>
       </c>
       <c r="L33">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M33">
         <v>0.038</v>
@@ -2540,19 +2543,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2569,7 +2572,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>0.031</v>
@@ -2584,7 +2587,7 @@
         <v>0.0445</v>
       </c>
       <c r="L34">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M34">
         <v>0.038</v>
@@ -2599,19 +2602,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2628,13 +2631,13 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35">
-        <v>86.018312655671</v>
+        <v>86.0165398084104</v>
       </c>
       <c r="H35">
         <v>3466</v>
@@ -2664,19 +2667,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2693,13 +2696,13 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36">
-        <v>86.018312655671</v>
+        <v>86.0165398084104</v>
       </c>
       <c r="H36">
         <v>3466</v>
@@ -2729,19 +2732,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2758,13 +2761,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>8</v>
       </c>
       <c r="G37">
-        <v>86.018312655671</v>
+        <v>86.0165398084104</v>
       </c>
       <c r="H37">
         <v>3466</v>
@@ -2794,19 +2797,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2823,13 +2826,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38">
-        <v>86.018312655671</v>
+        <v>86.0165398084104</v>
       </c>
       <c r="H38">
         <v>3466</v>
@@ -2859,19 +2862,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2888,13 +2891,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39">
-        <v>0.00111</v>
+        <v>0.00118</v>
       </c>
       <c r="G39">
-        <v>0.0025501313463292</v>
+        <v>0.0025962768070614</v>
       </c>
       <c r="H39">
         <v>0.0210850170824336</v>
@@ -2903,10 +2906,10 @@
         <v>0.01384</v>
       </c>
       <c r="L39">
-        <v>0.00105</v>
+        <v>0.00115</v>
       </c>
       <c r="M39">
-        <v>0.00275</v>
+        <v>0.00291</v>
       </c>
       <c r="N39">
         <v>0.008670000000000001</v>
@@ -2918,19 +2921,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2947,13 +2950,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
-        <v>0.00111</v>
+        <v>0.00118</v>
       </c>
       <c r="G40">
-        <v>0.0025501313463292</v>
+        <v>0.0025962768070614</v>
       </c>
       <c r="H40">
         <v>0.0210850170824336</v>
@@ -2962,10 +2965,10 @@
         <v>0.01384</v>
       </c>
       <c r="L40">
-        <v>0.00105</v>
+        <v>0.00115</v>
       </c>
       <c r="M40">
-        <v>0.00275</v>
+        <v>0.00291</v>
       </c>
       <c r="N40">
         <v>0.008670000000000001</v>
@@ -2977,19 +2980,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3006,13 +3009,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>0.023</v>
       </c>
       <c r="G41">
-        <v>0.0296514523098618</v>
+        <v>0.0297022931582599</v>
       </c>
       <c r="H41">
         <v>0.127</v>
@@ -3021,7 +3024,7 @@
         <v>0.0665</v>
       </c>
       <c r="L41">
-        <v>0.008229999999999999</v>
+        <v>0.0162</v>
       </c>
       <c r="M41">
         <v>0.0533</v>
@@ -3036,19 +3039,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3065,13 +3068,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>0.023</v>
       </c>
       <c r="G42">
-        <v>0.0296514523098618</v>
+        <v>0.0297022931582599</v>
       </c>
       <c r="H42">
         <v>0.127</v>
@@ -3080,7 +3083,7 @@
         <v>0.0665</v>
       </c>
       <c r="L42">
-        <v>0.008229999999999999</v>
+        <v>0.0162</v>
       </c>
       <c r="M42">
         <v>0.0533</v>
@@ -3095,19 +3098,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3121,13 +3124,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <v>0.02845</v>
       </c>
       <c r="G43">
-        <v>0.0363089617981096</v>
+        <v>0.0363494235954194</v>
       </c>
       <c r="H43">
         <v>0.135</v>
@@ -3136,7 +3139,7 @@
         <v>0.0842</v>
       </c>
       <c r="L43">
-        <v>0.0135</v>
+        <v>0.0231</v>
       </c>
       <c r="M43">
         <v>0.05626</v>
@@ -3151,19 +3154,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3177,13 +3180,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
         <v>0.02845</v>
       </c>
       <c r="G44">
-        <v>0.0363089617981096</v>
+        <v>0.0363494235954194</v>
       </c>
       <c r="H44">
         <v>0.135</v>
@@ -3192,7 +3195,7 @@
         <v>0.0842</v>
       </c>
       <c r="L44">
-        <v>0.0135</v>
+        <v>0.0231</v>
       </c>
       <c r="M44">
         <v>0.05626</v>
@@ -3207,19 +3210,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3233,13 +3236,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <v>0.07099999999999999</v>
       </c>
       <c r="G45">
-        <v>0.07792630290252089</v>
+        <v>0.077831626857209</v>
       </c>
       <c r="H45">
         <v>0.419</v>
@@ -3263,19 +3266,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3289,13 +3292,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>0.07099999999999999</v>
       </c>
       <c r="G46">
-        <v>0.07792630290252089</v>
+        <v>0.077831626857209</v>
       </c>
       <c r="H46">
         <v>0.419</v>
@@ -3319,19 +3322,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3345,7 +3348,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>0.031</v>
@@ -3360,7 +3363,7 @@
         <v>0.04075</v>
       </c>
       <c r="L47">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="M47">
         <v>0.0353</v>
@@ -3375,19 +3378,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3401,7 +3404,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>0.031</v>
@@ -3416,7 +3419,7 @@
         <v>0.04075</v>
       </c>
       <c r="L48">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="M48">
         <v>0.0353</v>
@@ -3431,19 +3434,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3460,7 +3463,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>3.8</v>
@@ -3490,19 +3493,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3519,28 +3522,28 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50">
-        <v>5.68</v>
+        <v>5.97157</v>
       </c>
       <c r="G50">
-        <v>5.97263230500884</v>
+        <v>6.11316025992084</v>
       </c>
       <c r="H50">
         <v>13</v>
       </c>
       <c r="I50">
-        <v>9.093450000000001</v>
+        <v>8.97545</v>
       </c>
       <c r="L50">
         <v>6.03</v>
       </c>
       <c r="M50">
-        <v>7.25903</v>
+        <v>7.419</v>
       </c>
       <c r="N50">
-        <v>8.29946</v>
+        <v>8.057539999999999</v>
       </c>
       <c r="O50">
         <v>1813128.407</v>
@@ -3549,19 +3552,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3578,7 +3581,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>0.031</v>
@@ -3593,7 +3596,7 @@
         <v>0.0433</v>
       </c>
       <c r="L51">
-        <v>0.0315</v>
+        <v>0.031</v>
       </c>
       <c r="M51">
         <v>0.03781</v>
@@ -3608,19 +3611,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3637,7 +3640,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>0.031</v>
@@ -3652,7 +3655,7 @@
         <v>0.0433</v>
       </c>
       <c r="L52">
-        <v>0.0315</v>
+        <v>0.031</v>
       </c>
       <c r="M52">
         <v>0.03781</v>
@@ -3667,19 +3670,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3696,13 +3699,13 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>8</v>
       </c>
       <c r="G53">
-        <v>18.1069069697246</v>
+        <v>18.1015845019475</v>
       </c>
       <c r="H53">
         <v>120</v>
@@ -3717,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M53">
         <v>25</v>
@@ -3732,19 +3735,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3761,13 +3764,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54">
-        <v>18.1069069697246</v>
+        <v>18.1015845019475</v>
       </c>
       <c r="H54">
         <v>120</v>
@@ -3782,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M54">
         <v>25</v>
@@ -3797,19 +3800,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3826,13 +3829,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55">
-        <v>18.1069069697246</v>
+        <v>18.1015845019475</v>
       </c>
       <c r="H55">
         <v>120</v>
@@ -3847,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M55">
         <v>25</v>
@@ -3862,19 +3865,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3891,13 +3894,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56">
-        <v>18.1069069697246</v>
+        <v>18.1015845019475</v>
       </c>
       <c r="H56">
         <v>120</v>
@@ -3912,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M56">
         <v>25</v>
@@ -3927,19 +3930,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3956,25 +3959,25 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="G57">
-        <v>0.0033926441257842</v>
+        <v>0.0034975280655081</v>
       </c>
       <c r="H57">
-        <v>0.0211657424453964</v>
+        <v>0.0223210096052945</v>
       </c>
       <c r="I57">
-        <v>0.01686</v>
+        <v>0.01765</v>
       </c>
       <c r="L57">
-        <v>0.00111</v>
+        <v>0.0017</v>
       </c>
       <c r="M57">
-        <v>0.00341</v>
+        <v>0.0035</v>
       </c>
       <c r="N57">
         <v>0.01461</v>
@@ -3986,19 +3989,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4015,25 +4018,25 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="G58">
-        <v>0.0033926441257842</v>
+        <v>0.0034975280655081</v>
       </c>
       <c r="H58">
-        <v>0.0211657424453964</v>
+        <v>0.0223210096052945</v>
       </c>
       <c r="I58">
-        <v>0.01686</v>
+        <v>0.01765</v>
       </c>
       <c r="L58">
-        <v>0.00111</v>
+        <v>0.0017</v>
       </c>
       <c r="M58">
-        <v>0.00341</v>
+        <v>0.0035</v>
       </c>
       <c r="N58">
         <v>0.01461</v>
@@ -4045,19 +4048,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4074,13 +4077,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>0.035</v>
       </c>
       <c r="G59">
-        <v>0.0337769673437142</v>
+        <v>0.0338304840262384</v>
       </c>
       <c r="H59">
         <v>0.127</v>
@@ -4089,7 +4092,7 @@
         <v>0.07963000000000001</v>
       </c>
       <c r="L59">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="M59">
         <v>0.05554</v>
@@ -4104,19 +4107,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4133,13 +4136,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>0.035</v>
       </c>
       <c r="G60">
-        <v>0.0337769673437142</v>
+        <v>0.0338304840262384</v>
       </c>
       <c r="H60">
         <v>0.127</v>
@@ -4148,7 +4151,7 @@
         <v>0.07963000000000001</v>
       </c>
       <c r="L60">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="M60">
         <v>0.05554</v>
@@ -4163,19 +4166,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4189,13 +4192,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>0.045</v>
       </c>
       <c r="G61">
-        <v>0.04059715276994</v>
+        <v>0.0406397441355292</v>
       </c>
       <c r="H61">
         <v>0.135</v>
@@ -4204,7 +4207,7 @@
         <v>0.09059</v>
       </c>
       <c r="L61">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="M61">
         <v>0.0639</v>
@@ -4219,19 +4222,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4245,13 +4248,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>0.045</v>
       </c>
       <c r="G62">
-        <v>0.04059715276994</v>
+        <v>0.0406397441355292</v>
       </c>
       <c r="H62">
         <v>0.135</v>
@@ -4260,7 +4263,7 @@
         <v>0.09059</v>
       </c>
       <c r="L62">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="M62">
         <v>0.0639</v>
@@ -4275,19 +4278,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4301,13 +4304,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63">
         <v>0.07000000000000001</v>
       </c>
       <c r="G63">
-        <v>0.0759537236338419</v>
+        <v>0.0758273485078934</v>
       </c>
       <c r="H63">
         <v>0.419</v>
@@ -4316,7 +4319,7 @@
         <v>0.12755</v>
       </c>
       <c r="L63">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="M63">
         <v>0.09</v>
@@ -4331,19 +4334,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4357,13 +4360,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>0.07000000000000001</v>
       </c>
       <c r="G64">
-        <v>0.0759537236338419</v>
+        <v>0.0758273485078934</v>
       </c>
       <c r="H64">
         <v>0.419</v>
@@ -4372,7 +4375,7 @@
         <v>0.12755</v>
       </c>
       <c r="L64">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="M64">
         <v>0.09</v>
@@ -4387,19 +4390,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4413,7 +4416,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>0.029</v>
@@ -4428,7 +4431,7 @@
         <v>0.04065</v>
       </c>
       <c r="L65">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M65">
         <v>0.035</v>
@@ -4443,19 +4446,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4469,7 +4472,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>0.029</v>
@@ -4484,7 +4487,7 @@
         <v>0.04065</v>
       </c>
       <c r="L66">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M66">
         <v>0.035</v>
@@ -4499,19 +4502,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4528,7 +4531,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>3.65</v>
@@ -4543,7 +4546,7 @@
         <v>22.7</v>
       </c>
       <c r="L67">
-        <v>2.65</v>
+        <v>2.575</v>
       </c>
       <c r="M67">
         <v>14.67</v>
@@ -4558,19 +4561,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4587,28 +4590,28 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>5.95</v>
       </c>
       <c r="G68">
-        <v>5.92507985898154</v>
+        <v>5.92886528961241</v>
       </c>
       <c r="H68">
         <v>13</v>
       </c>
       <c r="I68">
-        <v>8.96299</v>
+        <v>8.34531</v>
       </c>
       <c r="L68">
-        <v>6.14</v>
+        <v>6.03</v>
       </c>
       <c r="M68">
-        <v>7.19773</v>
+        <v>7.16895</v>
       </c>
       <c r="N68">
-        <v>7.8482</v>
+        <v>7.60112</v>
       </c>
       <c r="O68">
         <v>1813128.407</v>
@@ -4617,19 +4620,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4646,7 +4649,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>0.0315</v>
@@ -4661,7 +4664,7 @@
         <v>0.0407</v>
       </c>
       <c r="L69">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M69">
         <v>0.037</v>
@@ -4676,19 +4679,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4705,7 +4708,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70">
         <v>0.0315</v>
@@ -4720,7 +4723,7 @@
         <v>0.0407</v>
       </c>
       <c r="L70">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M70">
         <v>0.037</v>
@@ -4735,19 +4738,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4764,13 +4767,13 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>8</v>
       </c>
       <c r="G71">
-        <v>52.6622544092899</v>
+        <v>52.6532481292335</v>
       </c>
       <c r="H71">
         <v>1500</v>
@@ -4785,7 +4788,7 @@
         <v>3.57142857142857</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M71">
         <v>29.9</v>
@@ -4800,19 +4803,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4829,13 +4832,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72">
-        <v>52.6622544092899</v>
+        <v>52.6532481292335</v>
       </c>
       <c r="H72">
         <v>1500</v>
@@ -4850,7 +4853,7 @@
         <v>3.57142857142857</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M72">
         <v>29.9</v>
@@ -4865,19 +4868,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4894,13 +4897,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73">
-        <v>52.6622544092899</v>
+        <v>52.6532481292335</v>
       </c>
       <c r="H73">
         <v>1500</v>
@@ -4915,7 +4918,7 @@
         <v>3.57142857142857</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M73">
         <v>29.9</v>
@@ -4930,19 +4933,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4959,13 +4962,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>8</v>
       </c>
       <c r="G74">
-        <v>52.6622544092899</v>
+        <v>52.6532481292335</v>
       </c>
       <c r="H74">
         <v>1500</v>
@@ -4980,7 +4983,7 @@
         <v>3.57142857142857</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M74">
         <v>29.9</v>
@@ -4995,19 +4998,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5024,25 +5027,25 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75">
-        <v>0.00169</v>
+        <v>0.0018</v>
       </c>
       <c r="G75">
-        <v>0.0038495089527588</v>
+        <v>0.0040069752344459</v>
       </c>
       <c r="H75">
-        <v>0.0211657424453964</v>
+        <v>0.0223210096052945</v>
       </c>
       <c r="I75">
-        <v>0.01634</v>
+        <v>0.01708</v>
       </c>
       <c r="L75">
-        <v>0.0016</v>
+        <v>0.00187</v>
       </c>
       <c r="M75">
-        <v>0.00704</v>
+        <v>0.00738</v>
       </c>
       <c r="N75">
         <v>0.0133</v>
@@ -5054,19 +5057,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5083,25 +5086,25 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76">
-        <v>0.00169</v>
+        <v>0.0018</v>
       </c>
       <c r="G76">
-        <v>0.0038495089527588</v>
+        <v>0.0040069752344459</v>
       </c>
       <c r="H76">
-        <v>0.0211657424453964</v>
+        <v>0.0223210096052945</v>
       </c>
       <c r="I76">
-        <v>0.01634</v>
+        <v>0.01708</v>
       </c>
       <c r="L76">
-        <v>0.0016</v>
+        <v>0.00187</v>
       </c>
       <c r="M76">
-        <v>0.00704</v>
+        <v>0.00738</v>
       </c>
       <c r="N76">
         <v>0.0133</v>
@@ -5113,19 +5116,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5142,13 +5145,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77">
         <v>0.0345</v>
       </c>
       <c r="G77">
-        <v>0.035825518648931</v>
+        <v>0.0358889957393567</v>
       </c>
       <c r="H77">
         <v>0.127</v>
@@ -5157,7 +5160,7 @@
         <v>0.08104</v>
       </c>
       <c r="L77">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="M77">
         <v>0.05798</v>
@@ -5172,19 +5175,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5201,13 +5204,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <v>0.0345</v>
       </c>
       <c r="G78">
-        <v>0.035825518648931</v>
+        <v>0.0358889957393567</v>
       </c>
       <c r="H78">
         <v>0.127</v>
@@ -5216,7 +5219,7 @@
         <v>0.08104</v>
       </c>
       <c r="L78">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="M78">
         <v>0.05798</v>
@@ -5231,19 +5234,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5257,13 +5260,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79">
         <v>0.045</v>
       </c>
       <c r="G79">
-        <v>0.0429788764218233</v>
+        <v>0.0430312937578448</v>
       </c>
       <c r="H79">
         <v>0.135</v>
@@ -5272,7 +5275,7 @@
         <v>0.092</v>
       </c>
       <c r="L79">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="M79">
         <v>0.065</v>
@@ -5287,19 +5290,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5313,13 +5316,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>0.045</v>
       </c>
       <c r="G80">
-        <v>0.0429788764218233</v>
+        <v>0.0430312937578448</v>
       </c>
       <c r="H80">
         <v>0.135</v>
@@ -5328,7 +5331,7 @@
         <v>0.092</v>
       </c>
       <c r="L80">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="M80">
         <v>0.065</v>
@@ -5343,19 +5346,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5369,13 +5372,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81">
         <v>0.07000000000000001</v>
       </c>
       <c r="G81">
-        <v>0.0735256958981613</v>
+        <v>0.0733578877955556</v>
       </c>
       <c r="H81">
         <v>0.16</v>
@@ -5399,19 +5402,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5425,13 +5428,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0.07000000000000001</v>
       </c>
       <c r="G82">
-        <v>0.0735256958981613</v>
+        <v>0.0733578877955556</v>
       </c>
       <c r="H82">
         <v>0.16</v>
@@ -5455,19 +5458,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5481,7 +5484,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>0.0295</v>
@@ -5511,19 +5514,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5537,7 +5540,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84">
         <v>0.0295</v>
@@ -5567,19 +5570,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5596,7 +5599,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -5611,7 +5614,7 @@
         <v>26.3</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M85">
         <v>15</v>
@@ -5626,19 +5629,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5655,7 +5658,7 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>5.655</v>
@@ -5670,7 +5673,7 @@
         <v>7.51</v>
       </c>
       <c r="L86">
-        <v>5.745</v>
+        <v>5.805</v>
       </c>
       <c r="M86">
         <v>6.7776</v>
@@ -5685,19 +5688,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5714,7 +5717,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>0.03</v>
@@ -5744,19 +5747,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5773,7 +5776,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <v>0.03</v>
@@ -5803,19 +5806,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5832,13 +5835,13 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <v>12</v>
       </c>
       <c r="G89">
-        <v>62.6678517674939</v>
+        <v>62.6559854666111</v>
       </c>
       <c r="H89">
         <v>1500</v>
@@ -5853,7 +5856,7 @@
         <v>5.88235294117647</v>
       </c>
       <c r="L89">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M89">
         <v>46.47</v>
@@ -5868,19 +5871,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5897,13 +5900,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>12</v>
       </c>
       <c r="G90">
-        <v>62.6678517674939</v>
+        <v>62.6559854666111</v>
       </c>
       <c r="H90">
         <v>1500</v>
@@ -5918,7 +5921,7 @@
         <v>5.88235294117647</v>
       </c>
       <c r="L90">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M90">
         <v>46.47</v>
@@ -5933,19 +5936,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5962,13 +5965,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91">
         <v>12</v>
       </c>
       <c r="G91">
-        <v>62.6678517674939</v>
+        <v>62.6559854666111</v>
       </c>
       <c r="H91">
         <v>1500</v>
@@ -5983,7 +5986,7 @@
         <v>5.88235294117647</v>
       </c>
       <c r="L91">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M91">
         <v>46.47</v>
@@ -5998,19 +6001,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6027,13 +6030,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92">
         <v>12</v>
       </c>
       <c r="G92">
-        <v>62.6678517674939</v>
+        <v>62.6559854666111</v>
       </c>
       <c r="H92">
         <v>1500</v>
@@ -6048,7 +6051,7 @@
         <v>5.88235294117647</v>
       </c>
       <c r="L92">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M92">
         <v>46.47</v>
@@ -6063,19 +6066,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6092,28 +6095,28 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93">
-        <v>0.00189</v>
+        <v>0.00201</v>
       </c>
       <c r="G93">
-        <v>0.0047707063333448</v>
+        <v>0.0049468285997785</v>
       </c>
       <c r="H93">
         <v>0.0674316263011546</v>
       </c>
       <c r="I93">
-        <v>0.01756</v>
+        <v>0.01853</v>
       </c>
       <c r="L93">
-        <v>0.00207</v>
+        <v>0.00244</v>
       </c>
       <c r="M93">
-        <v>0.00624</v>
+        <v>0.00656</v>
       </c>
       <c r="N93">
-        <v>0.01037</v>
+        <v>0.01085</v>
       </c>
       <c r="O93">
         <v>1813128.407</v>
@@ -6122,19 +6125,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6151,28 +6154,28 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94">
-        <v>0.00189</v>
+        <v>0.00201</v>
       </c>
       <c r="G94">
-        <v>0.0047707063333448</v>
+        <v>0.0049468285997785</v>
       </c>
       <c r="H94">
         <v>0.0674316263011546</v>
       </c>
       <c r="I94">
-        <v>0.01756</v>
+        <v>0.01853</v>
       </c>
       <c r="L94">
-        <v>0.00207</v>
+        <v>0.00244</v>
       </c>
       <c r="M94">
-        <v>0.00624</v>
+        <v>0.00656</v>
       </c>
       <c r="N94">
-        <v>0.01037</v>
+        <v>0.01085</v>
       </c>
       <c r="O94">
         <v>1813128.407</v>
@@ -6181,19 +6184,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6210,13 +6213,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>0.034</v>
       </c>
       <c r="G95">
-        <v>0.0376984872677251</v>
+        <v>0.0377366898584882</v>
       </c>
       <c r="H95">
         <v>0.127</v>
@@ -6225,7 +6228,7 @@
         <v>0.0779</v>
       </c>
       <c r="L95">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="M95">
         <v>0.05783</v>
@@ -6240,19 +6243,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6269,13 +6272,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>0.034</v>
       </c>
       <c r="G96">
-        <v>0.0376984872677251</v>
+        <v>0.0377366898584882</v>
       </c>
       <c r="H96">
         <v>0.127</v>
@@ -6284,7 +6287,7 @@
         <v>0.0779</v>
       </c>
       <c r="L96">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="M96">
         <v>0.05783</v>
@@ -6299,19 +6302,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6325,13 +6328,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>0.045</v>
       </c>
       <c r="G97">
-        <v>0.0447011007974219</v>
+        <v>0.0447310054960107</v>
       </c>
       <c r="H97">
         <v>0.135</v>
@@ -6340,7 +6343,7 @@
         <v>0.08484999999999999</v>
       </c>
       <c r="L97">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="M97">
         <v>0.065</v>
@@ -6355,19 +6358,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6381,13 +6384,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F98">
         <v>0.045</v>
       </c>
       <c r="G98">
-        <v>0.0447011007974219</v>
+        <v>0.0447310054960107</v>
       </c>
       <c r="H98">
         <v>0.135</v>
@@ -6396,7 +6399,7 @@
         <v>0.08484999999999999</v>
       </c>
       <c r="L98">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="M98">
         <v>0.065</v>
@@ -6411,19 +6414,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6437,13 +6440,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <v>0.07000000000000001</v>
       </c>
       <c r="G99">
-        <v>0.07303309394968981</v>
+        <v>0.07287131618599731</v>
       </c>
       <c r="H99">
         <v>0.16</v>
@@ -6467,19 +6470,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6493,13 +6496,13 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100">
         <v>0.07000000000000001</v>
       </c>
       <c r="G100">
-        <v>0.07303309394968981</v>
+        <v>0.07287131618599731</v>
       </c>
       <c r="H100">
         <v>0.16</v>
@@ -6523,19 +6526,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6549,7 +6552,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>0.029</v>
@@ -6564,7 +6567,7 @@
         <v>0.03695</v>
       </c>
       <c r="L101">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M101">
         <v>0.03383</v>
@@ -6579,19 +6582,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6605,7 +6608,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102">
         <v>0.029</v>
@@ -6620,7 +6623,7 @@
         <v>0.03695</v>
       </c>
       <c r="L102">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M102">
         <v>0.03383</v>
@@ -6635,19 +6638,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6664,7 +6667,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F103">
         <v>6.25</v>
@@ -6679,7 +6682,7 @@
         <v>27.25</v>
       </c>
       <c r="L103">
-        <v>4.85</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
         <v>14.4</v>
@@ -6694,19 +6697,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6723,7 +6726,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104">
         <v>5.95</v>
@@ -6738,7 +6741,7 @@
         <v>7.725</v>
       </c>
       <c r="L104">
-        <v>6.005</v>
+        <v>5.965</v>
       </c>
       <c r="M104">
         <v>6.856</v>
@@ -6753,19 +6756,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6782,7 +6785,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>0.029</v>
@@ -6812,19 +6815,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6841,7 +6844,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F106">
         <v>0.029</v>
@@ -6871,19 +6874,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6900,13 +6903,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107">
         <v>8</v>
       </c>
       <c r="G107">
-        <v>60.3619302118474</v>
+        <v>60.3464980476671</v>
       </c>
       <c r="H107">
         <v>1500</v>
@@ -6921,7 +6924,7 @@
         <v>6.25</v>
       </c>
       <c r="L107">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M107">
         <v>26.7</v>
@@ -6936,19 +6939,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6965,13 +6968,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>8</v>
       </c>
       <c r="G108">
-        <v>60.3619302118474</v>
+        <v>60.3464980476671</v>
       </c>
       <c r="H108">
         <v>1500</v>
@@ -6986,7 +6989,7 @@
         <v>6.25</v>
       </c>
       <c r="L108">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M108">
         <v>26.7</v>
@@ -7001,19 +7004,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7030,13 +7033,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109">
         <v>8</v>
       </c>
       <c r="G109">
-        <v>60.3619302118474</v>
+        <v>60.3464980476671</v>
       </c>
       <c r="H109">
         <v>1500</v>
@@ -7051,7 +7054,7 @@
         <v>6.25</v>
       </c>
       <c r="L109">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M109">
         <v>26.7</v>
@@ -7066,19 +7069,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7095,13 +7098,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>8</v>
       </c>
       <c r="G110">
-        <v>60.3619302118474</v>
+        <v>60.3464980476671</v>
       </c>
       <c r="H110">
         <v>1500</v>
@@ -7116,7 +7119,7 @@
         <v>6.25</v>
       </c>
       <c r="L110">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M110">
         <v>26.7</v>
@@ -7131,19 +7134,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7160,28 +7163,28 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111">
-        <v>0.00253</v>
+        <v>0.00268</v>
       </c>
       <c r="G111">
-        <v>0.0052370177758042</v>
+        <v>0.0054067143286111</v>
       </c>
       <c r="H111">
         <v>0.0674316263011546</v>
       </c>
       <c r="I111">
-        <v>0.0182</v>
+        <v>0.0192</v>
       </c>
       <c r="L111">
-        <v>0.00263</v>
+        <v>0.00297</v>
       </c>
       <c r="M111">
-        <v>0.00699</v>
+        <v>0.00732</v>
       </c>
       <c r="N111">
-        <v>0.01083</v>
+        <v>0.01134</v>
       </c>
       <c r="O111">
         <v>1813128.407</v>
@@ -7190,19 +7193,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7219,28 +7222,28 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112">
-        <v>0.00253</v>
+        <v>0.00268</v>
       </c>
       <c r="G112">
-        <v>0.0052370177758042</v>
+        <v>0.0054067143286111</v>
       </c>
       <c r="H112">
         <v>0.0674316263011546</v>
       </c>
       <c r="I112">
-        <v>0.0182</v>
+        <v>0.0192</v>
       </c>
       <c r="L112">
-        <v>0.00263</v>
+        <v>0.00297</v>
       </c>
       <c r="M112">
-        <v>0.00699</v>
+        <v>0.00732</v>
       </c>
       <c r="N112">
-        <v>0.01083</v>
+        <v>0.01134</v>
       </c>
       <c r="O112">
         <v>1813128.407</v>
@@ -7249,19 +7252,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7278,13 +7281,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>0.038</v>
       </c>
       <c r="G113">
-        <v>0.0423980518765719</v>
+        <v>0.0424188572087831</v>
       </c>
       <c r="H113">
         <v>0.08599999999999999</v>
@@ -7293,7 +7296,7 @@
         <v>0.0781</v>
       </c>
       <c r="L113">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="M113">
         <v>0.06</v>
@@ -7308,19 +7311,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7337,13 +7340,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F114">
         <v>0.038</v>
       </c>
       <c r="G114">
-        <v>0.0423980518765719</v>
+        <v>0.0424188572087831</v>
       </c>
       <c r="H114">
         <v>0.08599999999999999</v>
@@ -7352,7 +7355,7 @@
         <v>0.0781</v>
       </c>
       <c r="L114">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="M114">
         <v>0.06</v>
@@ -7367,19 +7370,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7393,13 +7396,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115">
         <v>0.045</v>
       </c>
       <c r="G115">
-        <v>0.0488531777366091</v>
+        <v>0.0488743811600948</v>
       </c>
       <c r="H115">
         <v>0.095</v>
@@ -7423,19 +7426,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7449,13 +7452,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116">
         <v>0.045</v>
       </c>
       <c r="G116">
-        <v>0.0488531777366091</v>
+        <v>0.0488743811600948</v>
       </c>
       <c r="H116">
         <v>0.095</v>
@@ -7479,19 +7482,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7505,13 +7508,13 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
         <v>0.07000000000000001</v>
       </c>
       <c r="G117">
-        <v>0.0754042607093779</v>
+        <v>0.0752977507194128</v>
       </c>
       <c r="H117">
         <v>0.16</v>
@@ -7535,19 +7538,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7561,13 +7564,13 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
         <v>0.07000000000000001</v>
       </c>
       <c r="G118">
-        <v>0.0754042607093779</v>
+        <v>0.0752977507194128</v>
       </c>
       <c r="H118">
         <v>0.16</v>
@@ -7591,19 +7594,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7617,7 +7620,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>0.0285</v>
@@ -7632,7 +7635,7 @@
         <v>0.0366</v>
       </c>
       <c r="L119">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M119">
         <v>0.03334</v>
@@ -7647,19 +7650,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7673,7 +7676,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120">
         <v>0.0285</v>
@@ -7688,7 +7691,7 @@
         <v>0.0366</v>
       </c>
       <c r="L120">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="M120">
         <v>0.03334</v>
@@ -7703,19 +7706,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7732,7 +7735,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F121">
         <v>7.25</v>
@@ -7747,7 +7750,7 @@
         <v>36.9</v>
       </c>
       <c r="L121">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="M121">
         <v>16</v>
@@ -7762,19 +7765,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7791,7 +7794,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122">
         <v>5.725</v>
@@ -7806,7 +7809,7 @@
         <v>7.66</v>
       </c>
       <c r="L122">
-        <v>6.1</v>
+        <v>5.95</v>
       </c>
       <c r="M122">
         <v>6.699</v>
@@ -7821,19 +7824,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7850,7 +7853,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F123">
         <v>0.0295</v>
@@ -7865,7 +7868,7 @@
         <v>0.0492</v>
       </c>
       <c r="L123">
-        <v>0.0305</v>
+        <v>0.032</v>
       </c>
       <c r="M123">
         <v>0.037</v>
@@ -7880,19 +7883,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7909,7 +7912,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124">
         <v>0.0295</v>
@@ -7924,7 +7927,7 @@
         <v>0.0492</v>
       </c>
       <c r="L124">
-        <v>0.0305</v>
+        <v>0.032</v>
       </c>
       <c r="M124">
         <v>0.037</v>
@@ -7939,19 +7942,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7968,19 +7971,19 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F125">
         <v>10</v>
       </c>
       <c r="G125">
-        <v>107.229886016616</v>
+        <v>107.206766964628</v>
       </c>
       <c r="H125">
         <v>1500</v>
       </c>
       <c r="I125">
-        <v>615.6</v>
+        <v>615.28</v>
       </c>
       <c r="J125">
         <v>6.52173913043478</v>
@@ -7989,7 +7992,7 @@
         <v>13.0434782608696</v>
       </c>
       <c r="L125">
-        <v>101</v>
+        <v>27.5</v>
       </c>
       <c r="M125">
         <v>86.23999999999999</v>
@@ -8004,19 +8007,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8033,19 +8036,19 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126">
         <v>10</v>
       </c>
       <c r="G126">
-        <v>107.229886016616</v>
+        <v>107.206766964628</v>
       </c>
       <c r="H126">
         <v>1500</v>
       </c>
       <c r="I126">
-        <v>615.6</v>
+        <v>615.28</v>
       </c>
       <c r="J126">
         <v>6.52173913043478</v>
@@ -8054,7 +8057,7 @@
         <v>13.0434782608696</v>
       </c>
       <c r="L126">
-        <v>101</v>
+        <v>27.5</v>
       </c>
       <c r="M126">
         <v>86.23999999999999</v>
@@ -8069,19 +8072,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8098,19 +8101,19 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F127">
         <v>10</v>
       </c>
       <c r="G127">
-        <v>107.229886016616</v>
+        <v>107.206766964628</v>
       </c>
       <c r="H127">
         <v>1500</v>
       </c>
       <c r="I127">
-        <v>615.6</v>
+        <v>615.28</v>
       </c>
       <c r="J127">
         <v>6.52173913043478</v>
@@ -8119,7 +8122,7 @@
         <v>13.0434782608696</v>
       </c>
       <c r="L127">
-        <v>101</v>
+        <v>27.5</v>
       </c>
       <c r="M127">
         <v>86.23999999999999</v>
@@ -8134,19 +8137,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8163,19 +8166,19 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F128">
         <v>10</v>
       </c>
       <c r="G128">
-        <v>107.229886016616</v>
+        <v>107.206766964628</v>
       </c>
       <c r="H128">
         <v>1500</v>
       </c>
       <c r="I128">
-        <v>615.6</v>
+        <v>615.28</v>
       </c>
       <c r="J128">
         <v>6.52173913043478</v>
@@ -8184,7 +8187,7 @@
         <v>13.0434782608696</v>
       </c>
       <c r="L128">
-        <v>101</v>
+        <v>27.5</v>
       </c>
       <c r="M128">
         <v>86.23999999999999</v>
@@ -8199,19 +8202,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8228,28 +8231,28 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F129">
         <v>0.00338</v>
       </c>
       <c r="G129">
-        <v>0.0060050138956769</v>
+        <v>0.0061494392330792</v>
       </c>
       <c r="H129">
         <v>0.0674316263011546</v>
       </c>
       <c r="I129">
-        <v>0.01862</v>
+        <v>0.01965</v>
       </c>
       <c r="L129">
-        <v>0.00434</v>
+        <v>0.00445</v>
       </c>
       <c r="M129">
-        <v>0.00743</v>
+        <v>0.00762</v>
       </c>
       <c r="N129">
-        <v>0.01172</v>
+        <v>0.01229</v>
       </c>
       <c r="O129">
         <v>1813128.407</v>
@@ -8258,19 +8261,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8287,28 +8290,28 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130">
         <v>0.00338</v>
       </c>
       <c r="G130">
-        <v>0.0060050138956769</v>
+        <v>0.0061494392330792</v>
       </c>
       <c r="H130">
         <v>0.0674316263011546</v>
       </c>
       <c r="I130">
-        <v>0.01862</v>
+        <v>0.01965</v>
       </c>
       <c r="L130">
-        <v>0.00434</v>
+        <v>0.00445</v>
       </c>
       <c r="M130">
-        <v>0.00743</v>
+        <v>0.00762</v>
       </c>
       <c r="N130">
-        <v>0.01172</v>
+        <v>0.01229</v>
       </c>
       <c r="O130">
         <v>1813128.407</v>
@@ -8317,19 +8320,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8346,13 +8349,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131">
         <v>0.041</v>
       </c>
       <c r="G131">
-        <v>0.045700910994531</v>
+        <v>0.0457118733023561</v>
       </c>
       <c r="H131">
         <v>0.111</v>
@@ -8376,19 +8379,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8405,13 +8408,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F132">
         <v>0.041</v>
       </c>
       <c r="G132">
-        <v>0.045700910994531</v>
+        <v>0.0457118733023561</v>
       </c>
       <c r="H132">
         <v>0.111</v>
@@ -8435,19 +8438,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8461,13 +8464,13 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133">
         <v>0.0505</v>
       </c>
       <c r="G133">
-        <v>0.053199551559468</v>
+        <v>0.053210587711177</v>
       </c>
       <c r="H133">
         <v>0.111</v>
@@ -8476,7 +8479,7 @@
         <v>0.095</v>
       </c>
       <c r="L133">
-        <v>0.043</v>
+        <v>0.0445</v>
       </c>
       <c r="M133">
         <v>0.075</v>
@@ -8491,19 +8494,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8517,13 +8520,13 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F134">
         <v>0.0505</v>
       </c>
       <c r="G134">
-        <v>0.053199551559468</v>
+        <v>0.053210587711177</v>
       </c>
       <c r="H134">
         <v>0.111</v>
@@ -8532,7 +8535,7 @@
         <v>0.095</v>
       </c>
       <c r="L134">
-        <v>0.043</v>
+        <v>0.0445</v>
       </c>
       <c r="M134">
         <v>0.075</v>
@@ -8547,19 +8550,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8573,13 +8576,13 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F135">
         <v>0.07000000000000001</v>
       </c>
       <c r="G135">
-        <v>0.0836628763186605</v>
+        <v>0.0835717878131438</v>
       </c>
       <c r="H135">
         <v>0.37</v>
@@ -8588,7 +8591,7 @@
         <v>0.136</v>
       </c>
       <c r="L135">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="M135">
         <v>0.1</v>
@@ -8603,19 +8606,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8629,13 +8632,13 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136">
         <v>0.07000000000000001</v>
       </c>
       <c r="G136">
-        <v>0.0836628763186605</v>
+        <v>0.0835717878131438</v>
       </c>
       <c r="H136">
         <v>0.37</v>
@@ -8644,7 +8647,7 @@
         <v>0.136</v>
       </c>
       <c r="L136">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="M136">
         <v>0.1</v>
@@ -8659,19 +8662,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8685,7 +8688,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137">
         <v>0.03</v>
@@ -8715,19 +8718,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8741,7 +8744,7 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F138">
         <v>0.03</v>
@@ -8771,19 +8774,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8800,13 +8803,13 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F139">
         <v>7.5</v>
       </c>
       <c r="G139">
-        <v>12.1837721895981</v>
+        <v>12.1839352384891</v>
       </c>
       <c r="H139">
         <v>70</v>
@@ -8815,7 +8818,7 @@
         <v>54.75</v>
       </c>
       <c r="L139">
-        <v>5.55</v>
+        <v>9.25</v>
       </c>
       <c r="M139">
         <v>20.2</v>
@@ -8830,19 +8833,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8859,7 +8862,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F140">
         <v>5.86</v>
@@ -8874,7 +8877,7 @@
         <v>7.95</v>
       </c>
       <c r="L140">
-        <v>5.4</v>
+        <v>5.935</v>
       </c>
       <c r="M140">
         <v>6.535</v>
@@ -8889,19 +8892,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8918,7 +8921,7 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F141">
         <v>0.03</v>
@@ -8933,7 +8936,7 @@
         <v>0.04755</v>
       </c>
       <c r="L141">
-        <v>0.0305</v>
+        <v>0.0315</v>
       </c>
       <c r="M141">
         <v>0.037</v>
@@ -8948,19 +8951,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8977,7 +8980,7 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142">
         <v>0.03</v>
@@ -8992,7 +8995,7 @@
         <v>0.04755</v>
       </c>
       <c r="L142">
-        <v>0.0305</v>
+        <v>0.0315</v>
       </c>
       <c r="M142">
         <v>0.037</v>
@@ -9007,19 +9010,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9036,19 +9039,19 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F143">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G143">
-        <v>111.712906948597</v>
+        <v>111.720901018607</v>
       </c>
       <c r="H143">
         <v>1500</v>
       </c>
       <c r="I143">
-        <v>560.4</v>
+        <v>560.02</v>
       </c>
       <c r="J143">
         <v>6.12244897959184</v>
@@ -9057,10 +9060,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="L143">
-        <v>78</v>
+        <v>45.4</v>
       </c>
       <c r="M143">
-        <v>133.42</v>
+        <v>133.62</v>
       </c>
       <c r="N143">
         <v>472.9</v>
@@ -9072,19 +9075,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9101,19 +9104,19 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F144">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G144">
-        <v>111.712906948597</v>
+        <v>111.720901018607</v>
       </c>
       <c r="H144">
         <v>1500</v>
       </c>
       <c r="I144">
-        <v>560.4</v>
+        <v>560.02</v>
       </c>
       <c r="J144">
         <v>6.12244897959184</v>
@@ -9122,10 +9125,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="L144">
-        <v>78</v>
+        <v>45.4</v>
       </c>
       <c r="M144">
-        <v>133.42</v>
+        <v>133.62</v>
       </c>
       <c r="N144">
         <v>472.9</v>
@@ -9137,19 +9140,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9166,19 +9169,19 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G145">
-        <v>111.712906948597</v>
+        <v>111.720901018607</v>
       </c>
       <c r="H145">
         <v>1500</v>
       </c>
       <c r="I145">
-        <v>560.4</v>
+        <v>560.02</v>
       </c>
       <c r="J145">
         <v>6.12244897959184</v>
@@ -9187,10 +9190,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="L145">
-        <v>78</v>
+        <v>45.4</v>
       </c>
       <c r="M145">
-        <v>133.42</v>
+        <v>133.62</v>
       </c>
       <c r="N145">
         <v>472.9</v>
@@ -9202,19 +9205,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9231,19 +9234,19 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G146">
-        <v>111.712906948597</v>
+        <v>111.720901018607</v>
       </c>
       <c r="H146">
         <v>1500</v>
       </c>
       <c r="I146">
-        <v>560.4</v>
+        <v>560.02</v>
       </c>
       <c r="J146">
         <v>6.12244897959184</v>
@@ -9252,10 +9255,10 @@
         <v>14.2857142857143</v>
       </c>
       <c r="L146">
-        <v>78</v>
+        <v>45.4</v>
       </c>
       <c r="M146">
-        <v>133.42</v>
+        <v>133.62</v>
       </c>
       <c r="N146">
         <v>472.9</v>
@@ -9267,19 +9270,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9296,28 +9299,28 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F147">
-        <v>0.00349</v>
+        <v>0.00358</v>
       </c>
       <c r="G147">
-        <v>0.0052951257761435</v>
+        <v>0.0053593041348404</v>
       </c>
       <c r="H147">
         <v>0.0674316263011546</v>
       </c>
       <c r="I147">
-        <v>0.00987</v>
+        <v>0.00997</v>
       </c>
       <c r="L147">
-        <v>0.00434</v>
+        <v>0.00444</v>
       </c>
       <c r="M147">
-        <v>0.0071</v>
+        <v>0.00745</v>
       </c>
       <c r="N147">
-        <v>0.008880000000000001</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="O147">
         <v>1813128.407</v>
@@ -9326,19 +9329,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9355,28 +9358,28 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F148">
-        <v>0.00349</v>
+        <v>0.00358</v>
       </c>
       <c r="G148">
-        <v>0.0052951257761435</v>
+        <v>0.0053593041348404</v>
       </c>
       <c r="H148">
         <v>0.0674316263011546</v>
       </c>
       <c r="I148">
-        <v>0.00987</v>
+        <v>0.00997</v>
       </c>
       <c r="L148">
-        <v>0.00434</v>
+        <v>0.00444</v>
       </c>
       <c r="M148">
-        <v>0.0071</v>
+        <v>0.00745</v>
       </c>
       <c r="N148">
-        <v>0.008880000000000001</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="O148">
         <v>1813128.407</v>
@@ -9385,19 +9388,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9414,13 +9417,13 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F149">
         <v>0.045</v>
       </c>
       <c r="G149">
-        <v>0.0519641205254781</v>
+        <v>0.0519744116715996</v>
       </c>
       <c r="H149">
         <v>0.115</v>
@@ -9429,7 +9432,7 @@
         <v>0.1034</v>
       </c>
       <c r="L149">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="M149">
         <v>0.08051</v>
@@ -9444,19 +9447,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9473,13 +9476,13 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F150">
         <v>0.045</v>
       </c>
       <c r="G150">
-        <v>0.0519641205254781</v>
+        <v>0.0519744116715996</v>
       </c>
       <c r="H150">
         <v>0.115</v>
@@ -9488,7 +9491,7 @@
         <v>0.1034</v>
       </c>
       <c r="L150">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="M150">
         <v>0.08051</v>
@@ -9503,19 +9506,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U150" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9529,13 +9532,13 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F151">
         <v>0.056</v>
       </c>
       <c r="G151">
-        <v>0.0590342728925618</v>
+        <v>0.0590446333615131</v>
       </c>
       <c r="H151">
         <v>0.123</v>
@@ -9544,7 +9547,7 @@
         <v>0.10625</v>
       </c>
       <c r="L151">
-        <v>0.05425</v>
+        <v>0.046</v>
       </c>
       <c r="M151">
         <v>0.08517</v>
@@ -9559,19 +9562,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9585,13 +9588,13 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F152">
         <v>0.056</v>
       </c>
       <c r="G152">
-        <v>0.0590342728925618</v>
+        <v>0.0590446333615131</v>
       </c>
       <c r="H152">
         <v>0.123</v>
@@ -9600,7 +9603,7 @@
         <v>0.10625</v>
       </c>
       <c r="L152">
-        <v>0.05425</v>
+        <v>0.046</v>
       </c>
       <c r="M152">
         <v>0.08517</v>
@@ -9615,19 +9618,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9641,13 +9644,13 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F153">
         <v>0.08</v>
       </c>
       <c r="G153">
-        <v>0.0943280963911845</v>
+        <v>0.0942833235020651</v>
       </c>
       <c r="H153">
         <v>0.37</v>
@@ -9671,19 +9674,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9697,13 +9700,13 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F154">
         <v>0.08</v>
       </c>
       <c r="G154">
-        <v>0.0943280963911845</v>
+        <v>0.0942833235020651</v>
       </c>
       <c r="H154">
         <v>0.37</v>
@@ -9727,19 +9730,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9753,7 +9756,7 @@
         <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F155">
         <v>0.032</v>
@@ -9783,19 +9786,19 @@
         <v>5667238.188</v>
       </c>
       <c r="Q155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9809,7 +9812,7 @@
         <v>52</v>
       </c>
       <c r="E156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F156">
         <v>0.032</v>
@@ -9839,19 +9842,1087 @@
         <v>5667238.188</v>
       </c>
       <c r="Q156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157">
+        <v>11.8804547012082</v>
+      </c>
+      <c r="H157">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>50.55</v>
+      </c>
+      <c r="L157">
+        <v>8.25</v>
+      </c>
+      <c r="M157">
+        <v>18.435</v>
+      </c>
+      <c r="N157">
+        <v>35.59</v>
+      </c>
+      <c r="O157">
+        <v>1813128.407</v>
+      </c>
+      <c r="P157">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>55</v>
+      </c>
+      <c r="R157" t="s">
+        <v>56</v>
+      </c>
+      <c r="S157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+      <c r="F158">
+        <v>5.8</v>
+      </c>
+      <c r="G158">
+        <v>5.28581395348837</v>
+      </c>
+      <c r="H158">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I158">
+        <v>8.135</v>
+      </c>
+      <c r="L158">
+        <v>5.96</v>
+      </c>
+      <c r="M158">
+        <v>6.714</v>
+      </c>
+      <c r="N158">
+        <v>7.818</v>
+      </c>
+      <c r="O158">
+        <v>1813128.407</v>
+      </c>
+      <c r="P158">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+      <c r="R158" t="s">
+        <v>56</v>
+      </c>
+      <c r="S158" t="s">
+        <v>57</v>
+      </c>
+      <c r="T158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159">
+        <v>0.028</v>
+      </c>
+      <c r="G159">
+        <v>0.02834</v>
+      </c>
+      <c r="H159">
+        <v>0.066</v>
+      </c>
+      <c r="I159">
+        <v>0.049</v>
+      </c>
+      <c r="L159">
+        <v>0.03</v>
+      </c>
+      <c r="M159">
+        <v>0.036</v>
+      </c>
+      <c r="N159">
+        <v>0.0425</v>
+      </c>
+      <c r="O159">
+        <v>1813128.407</v>
+      </c>
+      <c r="P159">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>55</v>
+      </c>
+      <c r="R159" t="s">
+        <v>56</v>
+      </c>
+      <c r="S159" t="s">
+        <v>57</v>
+      </c>
+      <c r="T159" t="s">
+        <v>58</v>
+      </c>
+      <c r="U159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160">
+        <v>0.028</v>
+      </c>
+      <c r="G160">
+        <v>0.02834</v>
+      </c>
+      <c r="H160">
+        <v>0.066</v>
+      </c>
+      <c r="I160">
+        <v>0.049</v>
+      </c>
+      <c r="L160">
+        <v>0.03</v>
+      </c>
+      <c r="M160">
+        <v>0.036</v>
+      </c>
+      <c r="N160">
+        <v>0.0425</v>
+      </c>
+      <c r="O160">
+        <v>1813128.407</v>
+      </c>
+      <c r="P160">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>55</v>
+      </c>
+      <c r="R160" t="s">
+        <v>56</v>
+      </c>
+      <c r="S160" t="s">
+        <v>57</v>
+      </c>
+      <c r="T160" t="s">
+        <v>58</v>
+      </c>
+      <c r="U160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" t="s">
+        <v>54</v>
+      </c>
+      <c r="F161">
+        <v>14.2</v>
+      </c>
+      <c r="G161">
+        <v>124.966914683284</v>
+      </c>
+      <c r="H161">
+        <v>2452.4</v>
+      </c>
+      <c r="I161">
+        <v>541.6</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
+      </c>
+      <c r="K161">
+        <v>14</v>
+      </c>
+      <c r="L161">
+        <v>34</v>
+      </c>
+      <c r="M161">
+        <v>129.2</v>
+      </c>
+      <c r="N161">
+        <v>395.3</v>
+      </c>
+      <c r="O161">
+        <v>1813128.407</v>
+      </c>
+      <c r="P161">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>55</v>
+      </c>
+      <c r="R161" t="s">
+        <v>56</v>
+      </c>
+      <c r="S161" t="s">
+        <v>57</v>
+      </c>
+      <c r="T161" t="s">
+        <v>58</v>
+      </c>
+      <c r="U161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162">
+        <v>14.2</v>
+      </c>
+      <c r="G162">
+        <v>124.966914683284</v>
+      </c>
+      <c r="H162">
+        <v>2452.4</v>
+      </c>
+      <c r="I162">
+        <v>541.6</v>
+      </c>
+      <c r="J162">
+        <v>6</v>
+      </c>
+      <c r="K162">
+        <v>14</v>
+      </c>
+      <c r="L162">
+        <v>34</v>
+      </c>
+      <c r="M162">
+        <v>129.2</v>
+      </c>
+      <c r="N162">
+        <v>395.3</v>
+      </c>
+      <c r="O162">
+        <v>1813128.407</v>
+      </c>
+      <c r="P162">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>55</v>
+      </c>
+      <c r="R162" t="s">
+        <v>56</v>
+      </c>
+      <c r="S162" t="s">
+        <v>57</v>
+      </c>
+      <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163">
+        <v>14.2</v>
+      </c>
+      <c r="G163">
+        <v>124.966914683284</v>
+      </c>
+      <c r="H163">
+        <v>2452.4</v>
+      </c>
+      <c r="I163">
+        <v>541.6</v>
+      </c>
+      <c r="J163">
+        <v>6</v>
+      </c>
+      <c r="K163">
+        <v>14</v>
+      </c>
+      <c r="L163">
+        <v>34</v>
+      </c>
+      <c r="M163">
+        <v>129.2</v>
+      </c>
+      <c r="N163">
+        <v>395.3</v>
+      </c>
+      <c r="O163">
+        <v>1813128.407</v>
+      </c>
+      <c r="P163">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>55</v>
+      </c>
+      <c r="R163" t="s">
+        <v>56</v>
+      </c>
+      <c r="S163" t="s">
+        <v>57</v>
+      </c>
+      <c r="T163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U163" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" t="s">
+        <v>54</v>
+      </c>
+      <c r="F164">
+        <v>14.2</v>
+      </c>
+      <c r="G164">
+        <v>124.966914683284</v>
+      </c>
+      <c r="H164">
+        <v>2452.4</v>
+      </c>
+      <c r="I164">
+        <v>541.6</v>
+      </c>
+      <c r="J164">
+        <v>6</v>
+      </c>
+      <c r="K164">
+        <v>14</v>
+      </c>
+      <c r="L164">
+        <v>34</v>
+      </c>
+      <c r="M164">
+        <v>129.2</v>
+      </c>
+      <c r="N164">
+        <v>395.3</v>
+      </c>
+      <c r="O164">
+        <v>1813128.407</v>
+      </c>
+      <c r="P164">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>55</v>
+      </c>
+      <c r="R164" t="s">
+        <v>56</v>
+      </c>
+      <c r="S164" t="s">
+        <v>57</v>
+      </c>
+      <c r="T164" t="s">
+        <v>58</v>
+      </c>
+      <c r="U164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" t="s">
+        <v>53</v>
+      </c>
+      <c r="E165" t="s">
+        <v>54</v>
+      </c>
+      <c r="F165">
+        <v>0.00317</v>
+      </c>
+      <c r="G165">
+        <v>0.004960601488496</v>
+      </c>
+      <c r="H165">
+        <v>0.0674316263011546</v>
+      </c>
+      <c r="I165">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="L165">
+        <v>0.00427</v>
+      </c>
+      <c r="M165">
+        <v>0.00646</v>
+      </c>
+      <c r="N165">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="O165">
+        <v>1813128.407</v>
+      </c>
+      <c r="P165">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>55</v>
+      </c>
+      <c r="R165" t="s">
+        <v>56</v>
+      </c>
+      <c r="S165" t="s">
+        <v>57</v>
+      </c>
+      <c r="T165" t="s">
+        <v>58</v>
+      </c>
+      <c r="U165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" t="s">
+        <v>53</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166">
+        <v>0.00317</v>
+      </c>
+      <c r="G166">
+        <v>0.004960601488496</v>
+      </c>
+      <c r="H166">
+        <v>0.0674316263011546</v>
+      </c>
+      <c r="I166">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="L166">
+        <v>0.00427</v>
+      </c>
+      <c r="M166">
+        <v>0.00646</v>
+      </c>
+      <c r="N166">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="O166">
+        <v>1813128.407</v>
+      </c>
+      <c r="P166">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>55</v>
+      </c>
+      <c r="R166" t="s">
+        <v>56</v>
+      </c>
+      <c r="S166" t="s">
+        <v>57</v>
+      </c>
+      <c r="T166" t="s">
+        <v>58</v>
+      </c>
+      <c r="U166" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167">
+        <v>0.0505</v>
+      </c>
+      <c r="G167">
+        <v>0.05762</v>
+      </c>
+      <c r="H167">
+        <v>0.115</v>
+      </c>
+      <c r="I167">
+        <v>0.103</v>
+      </c>
+      <c r="L167">
+        <v>0.045</v>
+      </c>
+      <c r="M167">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="N167">
+        <v>0.096</v>
+      </c>
+      <c r="O167">
+        <v>1813128.407</v>
+      </c>
+      <c r="P167">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>55</v>
+      </c>
+      <c r="R167" t="s">
+        <v>56</v>
+      </c>
+      <c r="S167" t="s">
+        <v>57</v>
+      </c>
+      <c r="T167" t="s">
+        <v>58</v>
+      </c>
+      <c r="U167" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" t="s">
+        <v>53</v>
+      </c>
+      <c r="E168" t="s">
+        <v>54</v>
+      </c>
+      <c r="F168">
+        <v>0.0505</v>
+      </c>
+      <c r="G168">
+        <v>0.05762</v>
+      </c>
+      <c r="H168">
+        <v>0.115</v>
+      </c>
+      <c r="I168">
+        <v>0.103</v>
+      </c>
+      <c r="L168">
+        <v>0.045</v>
+      </c>
+      <c r="M168">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="N168">
+        <v>0.096</v>
+      </c>
+      <c r="O168">
+        <v>1813128.407</v>
+      </c>
+      <c r="P168">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>55</v>
+      </c>
+      <c r="R168" t="s">
+        <v>56</v>
+      </c>
+      <c r="S168" t="s">
+        <v>57</v>
+      </c>
+      <c r="T168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U168" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F169">
+        <v>0.059</v>
+      </c>
+      <c r="G169">
+        <v>0.06537</v>
+      </c>
+      <c r="H169">
+        <v>0.149</v>
+      </c>
+      <c r="I169">
+        <v>0.111</v>
+      </c>
+      <c r="L169">
+        <v>0.053</v>
+      </c>
+      <c r="M169">
+        <v>0.089</v>
+      </c>
+      <c r="N169">
+        <v>0.105</v>
+      </c>
+      <c r="O169">
+        <v>1813128.407</v>
+      </c>
+      <c r="P169">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>55</v>
+      </c>
+      <c r="R169" t="s">
+        <v>56</v>
+      </c>
+      <c r="S169" t="s">
+        <v>57</v>
+      </c>
+      <c r="T169" t="s">
+        <v>58</v>
+      </c>
+      <c r="U169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170">
+        <v>0.059</v>
+      </c>
+      <c r="G170">
+        <v>0.06537</v>
+      </c>
+      <c r="H170">
+        <v>0.149</v>
+      </c>
+      <c r="I170">
+        <v>0.111</v>
+      </c>
+      <c r="L170">
+        <v>0.053</v>
+      </c>
+      <c r="M170">
+        <v>0.089</v>
+      </c>
+      <c r="N170">
+        <v>0.105</v>
+      </c>
+      <c r="O170">
+        <v>1813128.407</v>
+      </c>
+      <c r="P170">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>55</v>
+      </c>
+      <c r="R170" t="s">
+        <v>56</v>
+      </c>
+      <c r="S170" t="s">
+        <v>57</v>
+      </c>
+      <c r="T170" t="s">
+        <v>58</v>
+      </c>
+      <c r="U170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171">
+        <v>0.08</v>
+      </c>
+      <c r="G171">
+        <v>0.0948</v>
+      </c>
+      <c r="H171">
+        <v>0.37</v>
+      </c>
+      <c r="I171">
+        <v>0.17</v>
+      </c>
+      <c r="L171">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M171">
+        <v>0.12</v>
+      </c>
+      <c r="N171">
+        <v>0.155</v>
+      </c>
+      <c r="O171">
+        <v>1813128.407</v>
+      </c>
+      <c r="P171">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>55</v>
+      </c>
+      <c r="R171" t="s">
+        <v>56</v>
+      </c>
+      <c r="S171" t="s">
+        <v>57</v>
+      </c>
+      <c r="T171" t="s">
+        <v>58</v>
+      </c>
+      <c r="U171" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" t="s">
+        <v>53</v>
+      </c>
+      <c r="E172" t="s">
+        <v>54</v>
+      </c>
+      <c r="F172">
+        <v>0.08</v>
+      </c>
+      <c r="G172">
+        <v>0.0948</v>
+      </c>
+      <c r="H172">
+        <v>0.37</v>
+      </c>
+      <c r="I172">
+        <v>0.17</v>
+      </c>
+      <c r="L172">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M172">
+        <v>0.12</v>
+      </c>
+      <c r="N172">
+        <v>0.155</v>
+      </c>
+      <c r="O172">
+        <v>1813128.407</v>
+      </c>
+      <c r="P172">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>55</v>
+      </c>
+      <c r="R172" t="s">
+        <v>56</v>
+      </c>
+      <c r="S172" t="s">
+        <v>57</v>
+      </c>
+      <c r="T172" t="s">
+        <v>58</v>
+      </c>
+      <c r="U172" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s">
+        <v>54</v>
+      </c>
+      <c r="F173">
+        <v>0.0315</v>
+      </c>
+      <c r="G173">
+        <v>0.03258</v>
+      </c>
+      <c r="H173">
+        <v>0.075</v>
+      </c>
+      <c r="I173">
+        <v>0.058</v>
+      </c>
+      <c r="L173">
+        <v>0.034</v>
+      </c>
+      <c r="M173">
+        <v>0.039</v>
+      </c>
+      <c r="N173">
+        <v>0.047</v>
+      </c>
+      <c r="O173">
+        <v>1813128.407</v>
+      </c>
+      <c r="P173">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>55</v>
+      </c>
+      <c r="R173" t="s">
+        <v>56</v>
+      </c>
+      <c r="S173" t="s">
+        <v>57</v>
+      </c>
+      <c r="T173" t="s">
+        <v>58</v>
+      </c>
+      <c r="U173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" t="s">
+        <v>54</v>
+      </c>
+      <c r="F174">
+        <v>0.0315</v>
+      </c>
+      <c r="G174">
+        <v>0.03258</v>
+      </c>
+      <c r="H174">
+        <v>0.075</v>
+      </c>
+      <c r="I174">
+        <v>0.058</v>
+      </c>
+      <c r="L174">
+        <v>0.034</v>
+      </c>
+      <c r="M174">
+        <v>0.039</v>
+      </c>
+      <c r="N174">
+        <v>0.047</v>
+      </c>
+      <c r="O174">
+        <v>1813128.407</v>
+      </c>
+      <c r="P174">
+        <v>5667238.188</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>55</v>
+      </c>
+      <c r="R174" t="s">
+        <v>56</v>
+      </c>
+      <c r="S174" t="s">
+        <v>57</v>
+      </c>
+      <c r="T174" t="s">
+        <v>58</v>
+      </c>
+      <c r="U174" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
